--- a/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoQuy/Q3.2021/Báo cáo review KH vip.xlsx
+++ b/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoQuy/Q3.2021/Báo cáo review KH vip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="204">
   <si>
     <t>SUBMISSION</t>
   </si>
@@ -120,9 +120,6 @@
     <t>022C023710</t>
   </si>
   <si>
-    <t>022C004835</t>
-  </si>
-  <si>
     <t>022C004883</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>LÊ THỊ THOA</t>
   </si>
   <si>
-    <t>TRẦN NGỌC SƠN</t>
-  </si>
-  <si>
     <t>NGUYỄN HỒ NAM</t>
   </si>
   <si>
@@ -519,13 +513,118 @@
     <t>VIP Branch</t>
   </si>
   <si>
-    <t>Promote Gold PHS</t>
-  </si>
-  <si>
     <t>Demote DP</t>
   </si>
   <si>
-    <t>Promote Silv PHS</t>
+    <t>NGUYỄN TRÀ MY</t>
+  </si>
+  <si>
+    <t>HOÀNG THẾ THIỆU</t>
+  </si>
+  <si>
+    <t>TRẦN NGỌC LÃM</t>
+  </si>
+  <si>
+    <t>ĐOÀN THỊ MINH PHƯƠNG</t>
+  </si>
+  <si>
+    <t>VÕ THỊ THẢO</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ CẨM VÂN</t>
+  </si>
+  <si>
+    <t>NGUYỄN VIẾT VINH</t>
+  </si>
+  <si>
+    <t>NGUYỄN NGỌC TOÀN</t>
+  </si>
+  <si>
+    <t>NGUYỄN THÀNH ĐẠT</t>
+  </si>
+  <si>
+    <t>ĐINH KHẮC VIỆT</t>
+  </si>
+  <si>
+    <t>LÊ VĂN CẬP</t>
+  </si>
+  <si>
+    <t>NGUYỄN QUANG HUY</t>
+  </si>
+  <si>
+    <t>PHAN HOÀNG PHƯƠNG LINH</t>
+  </si>
+  <si>
+    <t>LƯU ANH TUẤN</t>
+  </si>
+  <si>
+    <t>TRẦN XUÂN TRĂM</t>
+  </si>
+  <si>
+    <t>NGUYỄN TRẦN PHƯƠNG UYÊN</t>
+  </si>
+  <si>
+    <t>HUỲNH NHƯ QUỲNH</t>
+  </si>
+  <si>
+    <t>NGUYỄN QUANG SẮC</t>
+  </si>
+  <si>
+    <t>PHAN KIẾT TƯỜNG</t>
+  </si>
+  <si>
+    <t>CHÂU MINH SANG</t>
+  </si>
+  <si>
+    <t>NGUYỄN MINH TRÍ</t>
+  </si>
+  <si>
+    <t>ĐỖ THỊ HẠNH</t>
+  </si>
+  <si>
+    <t>NGUYỄN TẤN KHOA</t>
+  </si>
+  <si>
+    <t>ĐÀO VĨNH PHÚ</t>
+  </si>
+  <si>
+    <t>LẠI PHƯỚC THUẬN</t>
+  </si>
+  <si>
+    <t>NGUYỄN QUAN HUY</t>
+  </si>
+  <si>
+    <t>VŨ TRỌNG HÙNG</t>
+  </si>
+  <si>
+    <t>PHẠM HUY TRÍ</t>
+  </si>
+  <si>
+    <t>DƯƠNG THỊ THANH LÝ</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ NGA</t>
+  </si>
+  <si>
+    <t>LƯỜNG NGỌC NGHĨA</t>
+  </si>
+  <si>
+    <t>NGUYỄN TUẤN TÚ</t>
+  </si>
+  <si>
+    <t>TRẦN VĂN TUẤN HÙNG</t>
+  </si>
+  <si>
+    <t>ĐÀO NGỌC ANH</t>
+  </si>
+  <si>
+    <t>VŨ ĐÌNH BẰNG</t>
+  </si>
+  <si>
+    <t>MAI THỊ TUYẾT</t>
+  </si>
+  <si>
+    <t>BÙI THỊ THU PHƯƠNG</t>
   </si>
   <si>
     <t>Effective: Promoted accounts be applied from ......./......./2021 &amp; another accounts be applied from ........../........../2021</t>
@@ -557,7 +656,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="#,###0"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.00&quot;%&quot;"/>
     <numFmt numFmtId="168" formatCode="0.0&quot;%&quot;"/>
@@ -767,8 +866,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12169</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1496923</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>230963</xdr:rowOff>
     </xdr:to>
@@ -788,7 +887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190500"/>
-          <a:ext cx="2564869" cy="554813"/>
+          <a:ext cx="2544673" cy="554813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R86"/>
+  <dimension ref="A2:R85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,10 +1341,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E7" s="11">
         <v>44229</v>
@@ -1254,19 +1353,19 @@
         <v>40000000</v>
       </c>
       <c r="G7" s="13">
-        <v>41349254.9</v>
+        <v>13783084.96666667</v>
       </c>
       <c r="H7" s="14">
-        <v>103.37313725</v>
+        <v>34.45771241666667</v>
       </c>
       <c r="I7" s="13">
         <v>1646110103.2625</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L7" s="16">
         <v>12.5</v>
@@ -1276,7 +1375,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="R7" s="9"/>
     </row>
@@ -1288,10 +1387,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8" s="11">
         <v>44140</v>
@@ -1300,19 +1399,19 @@
         <v>40000000</v>
       </c>
       <c r="G8" s="13">
-        <v>10928887.4</v>
+        <v>3642962.466666667</v>
       </c>
       <c r="H8" s="14">
-        <v>27.3222185</v>
+        <v>9.107406166666667</v>
       </c>
       <c r="I8" s="13">
-        <v>6776000567</v>
+        <v>7411250620.15625</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L8" s="16">
         <v>12.5</v>
@@ -1322,7 +1421,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="R8" s="9"/>
     </row>
@@ -1334,10 +1433,10 @@
         <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" s="11">
         <v>44140</v>
@@ -1346,19 +1445,19 @@
         <v>40000000</v>
       </c>
       <c r="G9" s="13">
-        <v>38256139.8</v>
+        <v>12752046.6</v>
       </c>
       <c r="H9" s="14">
-        <v>95.64034949999999</v>
+        <v>31.8801165</v>
       </c>
       <c r="I9" s="13">
         <v>2916562481.352188</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L9" s="16">
         <v>12.5</v>
@@ -1368,7 +1467,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="R9" s="9"/>
     </row>
@@ -1380,31 +1479,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="11">
-        <v>44439</v>
+        <v>44323</v>
       </c>
       <c r="F10" s="12">
         <v>40000000</v>
       </c>
       <c r="G10" s="13">
-        <v>9405451.4</v>
+        <v>5225</v>
       </c>
       <c r="H10" s="14">
-        <v>23.5136285</v>
+        <v>0.0130625</v>
       </c>
       <c r="I10" s="13">
-        <v>282656065.837037</v>
+        <v>24188933524.58906</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L10" s="16">
         <v>12.5</v>
@@ -1414,7 +1513,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="R10" s="9"/>
     </row>
@@ -1426,31 +1525,31 @@
         <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E11" s="11">
-        <v>44323</v>
+        <v>44095</v>
       </c>
       <c r="F11" s="12">
         <v>40000000</v>
       </c>
       <c r="G11" s="13">
-        <v>15675</v>
+        <v>9251821.033333333</v>
       </c>
       <c r="H11" s="14">
-        <v>0.0391875</v>
+        <v>23.12955258333333</v>
       </c>
       <c r="I11" s="13">
-        <v>22115596365.33857</v>
+        <v>4830892881.295</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L11" s="16">
         <v>12.5</v>
@@ -1460,7 +1559,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="R11" s="9"/>
     </row>
@@ -1472,31 +1571,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E12" s="11">
-        <v>44095</v>
+        <v>44410</v>
       </c>
       <c r="F12" s="12">
         <v>40000000</v>
       </c>
       <c r="G12" s="13">
-        <v>27755463.1</v>
+        <v>10242727.15</v>
       </c>
       <c r="H12" s="14">
-        <v>69.38865774999999</v>
+        <v>25.606817875</v>
       </c>
       <c r="I12" s="13">
-        <v>3360621134.813913</v>
+        <v>2420051877.864286</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L12" s="16">
         <v>12.5</v>
@@ -1506,7 +1605,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="R12" s="9"/>
     </row>
@@ -1518,31 +1617,31 @@
         <v>31</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E13" s="11">
-        <v>44410</v>
+        <v>44145</v>
       </c>
       <c r="F13" s="12">
         <v>40000000</v>
       </c>
       <c r="G13" s="13">
-        <v>20485454.3</v>
+        <v>9699897.533333333</v>
       </c>
       <c r="H13" s="14">
-        <v>51.21363574999999</v>
+        <v>24.24974383333333</v>
       </c>
       <c r="I13" s="13">
-        <v>1694036314.505</v>
+        <v>4132701901.90375</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L13" s="16">
         <v>12.5</v>
@@ -1552,7 +1651,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="R13" s="9"/>
     </row>
@@ -1564,31 +1663,31 @@
         <v>32</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E14" s="11">
-        <v>44145</v>
+        <v>44095</v>
       </c>
       <c r="F14" s="12">
         <v>40000000</v>
       </c>
       <c r="G14" s="13">
-        <v>29099692.6</v>
+        <v>5247450.399999999</v>
       </c>
       <c r="H14" s="14">
-        <v>72.74923149999999</v>
+        <v>13.118626</v>
       </c>
       <c r="I14" s="13">
-        <v>3778470310.312</v>
+        <v>4487688426.785156</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L14" s="16">
         <v>12.5</v>
@@ -1598,7 +1697,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="R14" s="9"/>
     </row>
@@ -1610,31 +1709,31 @@
         <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E15" s="11">
-        <v>44095</v>
+        <v>44333</v>
       </c>
       <c r="F15" s="12">
         <v>40000000</v>
       </c>
       <c r="G15" s="13">
-        <v>15742351.2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="14">
-        <v>39.355878</v>
+        <v>0</v>
       </c>
       <c r="I15" s="13">
-        <v>4103029418.775</v>
+        <v>4079824959.74</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L15" s="16">
         <v>12.5</v>
@@ -1644,7 +1743,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="R15" s="9"/>
     </row>
@@ -1656,10 +1755,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E16" s="11">
         <v>44333</v>
@@ -1668,19 +1767,19 @@
         <v>40000000</v>
       </c>
       <c r="G16" s="13">
-        <v>0</v>
+        <v>2705292.633333333</v>
       </c>
       <c r="H16" s="14">
-        <v>0</v>
+        <v>6.763231583333333</v>
       </c>
       <c r="I16" s="13">
-        <v>4079824959.74</v>
+        <v>6414739269.412344</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L16" s="16">
         <v>12.5</v>
@@ -1690,7 +1789,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="R16" s="9"/>
     </row>
@@ -1702,31 +1801,31 @@
         <v>35</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E17" s="11">
-        <v>44333</v>
+        <v>44377</v>
       </c>
       <c r="F17" s="12">
         <v>40000000</v>
       </c>
       <c r="G17" s="13">
-        <v>8115877.9</v>
+        <v>7495168.933333334</v>
       </c>
       <c r="H17" s="14">
-        <v>20.28969475</v>
+        <v>18.73792233333333</v>
       </c>
       <c r="I17" s="13">
-        <v>5864904474.891286</v>
+        <v>2681058277.15625</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L17" s="16">
         <v>12.5</v>
@@ -1736,7 +1835,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="R17" s="9"/>
     </row>
@@ -1748,10 +1847,10 @@
         <v>36</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E18" s="11">
         <v>44377</v>
@@ -1760,19 +1859,19 @@
         <v>40000000</v>
       </c>
       <c r="G18" s="13">
-        <v>22485506.8</v>
+        <v>11913345.4</v>
       </c>
       <c r="H18" s="14">
-        <v>56.213767</v>
+        <v>29.7833635</v>
       </c>
       <c r="I18" s="13">
-        <v>1865084018.891304</v>
+        <v>1849068160.057969</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L18" s="16">
         <v>12.5</v>
@@ -1782,7 +1881,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="R18" s="9"/>
     </row>
@@ -1794,31 +1893,31 @@
         <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E19" s="11">
-        <v>44377</v>
+        <v>44410</v>
       </c>
       <c r="F19" s="12">
         <v>40000000</v>
       </c>
       <c r="G19" s="13">
-        <v>35740036.2</v>
+        <v>6555366.550000001</v>
       </c>
       <c r="H19" s="14">
-        <v>89.35009050000001</v>
+        <v>16.388416375</v>
       </c>
       <c r="I19" s="13">
-        <v>1286308285.257717</v>
+        <v>568518438.6452382</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L19" s="16">
         <v>12.5</v>
@@ -1828,7 +1927,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="R19" s="9"/>
     </row>
@@ -1840,31 +1939,31 @@
         <v>38</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E20" s="11">
-        <v>44410</v>
+        <v>44095</v>
       </c>
       <c r="F20" s="12">
         <v>40000000</v>
       </c>
       <c r="G20" s="13">
-        <v>13110733.1</v>
+        <v>192962</v>
       </c>
       <c r="H20" s="14">
-        <v>32.77683275</v>
+        <v>0.482405</v>
       </c>
       <c r="I20" s="13">
-        <v>459187969.6750001</v>
+        <v>3563411660.465625</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L20" s="16">
         <v>12.5</v>
@@ -1874,7 +1973,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="R20" s="9"/>
     </row>
@@ -1886,31 +1985,31 @@
         <v>39</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E21" s="11">
-        <v>44095</v>
+        <v>44333</v>
       </c>
       <c r="F21" s="12">
         <v>40000000</v>
       </c>
       <c r="G21" s="13">
-        <v>578886</v>
+        <v>4130953.7</v>
       </c>
       <c r="H21" s="14">
-        <v>1.447215</v>
+        <v>10.32738425</v>
       </c>
       <c r="I21" s="13">
-        <v>3563411660.465625</v>
+        <v>3537716339.2125</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L21" s="16">
         <v>12.5</v>
@@ -1920,7 +2019,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="R21" s="9"/>
     </row>
@@ -1932,31 +2031,31 @@
         <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E22" s="11">
-        <v>44333</v>
+        <v>44095</v>
       </c>
       <c r="F22" s="12">
         <v>40000000</v>
       </c>
       <c r="G22" s="13">
-        <v>12392861.1</v>
+        <v>13373392.26666667</v>
       </c>
       <c r="H22" s="14">
-        <v>30.98215275</v>
+        <v>33.43348066666667</v>
       </c>
       <c r="I22" s="13">
-        <v>2461020062.06087</v>
+        <v>10112848002.3625</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L22" s="16">
         <v>12.5</v>
@@ -1966,7 +2065,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="R22" s="9"/>
     </row>
@@ -1978,31 +2077,31 @@
         <v>41</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="11">
-        <v>44095</v>
+        <v>44432</v>
       </c>
       <c r="F23" s="12">
         <v>40000000</v>
       </c>
       <c r="G23" s="13">
-        <v>40120176.8</v>
+        <v>7297825.657894737</v>
       </c>
       <c r="H23" s="14">
-        <v>100.300442</v>
+        <v>18.24456414473685</v>
       </c>
       <c r="I23" s="13">
-        <v>8090278401.889999</v>
+        <v>1623042238.5</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L23" s="16">
         <v>12.5</v>
@@ -2012,7 +2111,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="R23" s="9"/>
     </row>
@@ -2024,31 +2123,31 @@
         <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E24" s="11">
-        <v>44432</v>
+        <v>44369</v>
       </c>
       <c r="F24" s="12">
         <v>40000000</v>
       </c>
       <c r="G24" s="13">
-        <v>9243912.5</v>
+        <v>10107304.26666667</v>
       </c>
       <c r="H24" s="14">
-        <v>23.10978125</v>
+        <v>25.26826066666667</v>
       </c>
       <c r="I24" s="13">
-        <v>1110502584.236842</v>
+        <v>3468138922.597656</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L24" s="16">
         <v>12.5</v>
@@ -2058,7 +2157,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="R24" s="9"/>
     </row>
@@ -2070,31 +2169,31 @@
         <v>43</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E25" s="11">
-        <v>44369</v>
+        <v>44410</v>
       </c>
       <c r="F25" s="12">
         <v>40000000</v>
       </c>
       <c r="G25" s="13">
-        <v>30321912.8</v>
+        <v>581764.5</v>
       </c>
       <c r="H25" s="14">
-        <v>75.804782</v>
+        <v>1.45441125</v>
       </c>
       <c r="I25" s="13">
-        <v>3468138922.597656</v>
+        <v>1033341486.173809</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L25" s="16">
         <v>12.5</v>
@@ -2104,7 +2203,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="R25" s="9"/>
     </row>
@@ -2116,31 +2215,31 @@
         <v>44</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E26" s="11">
-        <v>44410</v>
+        <v>44418</v>
       </c>
       <c r="F26" s="12">
         <v>40000000</v>
       </c>
       <c r="G26" s="13">
-        <v>1163529</v>
+        <v>16326765.92307692</v>
       </c>
       <c r="H26" s="14">
-        <v>2.9088225</v>
+        <v>40.81691480769231</v>
       </c>
       <c r="I26" s="13">
-        <v>1033341486.173809</v>
+        <v>2207980091.042222</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L26" s="16">
         <v>12.5</v>
@@ -2150,7 +2249,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="R26" s="9"/>
     </row>
@@ -2162,31 +2261,31 @@
         <v>45</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27" s="11">
-        <v>44418</v>
+        <v>44434</v>
       </c>
       <c r="F27" s="12">
         <v>40000000</v>
       </c>
       <c r="G27" s="13">
-        <v>28299727.6</v>
+        <v>3096635.916666667</v>
       </c>
       <c r="H27" s="14">
-        <v>70.749319</v>
+        <v>7.741589791666667</v>
       </c>
       <c r="I27" s="13">
-        <v>1528601601.490769</v>
+        <v>338638898.3041667</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L27" s="16">
         <v>12.5</v>
@@ -2196,7 +2295,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="R27" s="9"/>
     </row>
@@ -2208,31 +2307,31 @@
         <v>46</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E28" s="11">
-        <v>44434</v>
+        <v>44340</v>
       </c>
       <c r="F28" s="12">
         <v>40000000</v>
       </c>
       <c r="G28" s="13">
-        <v>3715963.1</v>
+        <v>4807983.266666667</v>
       </c>
       <c r="H28" s="14">
-        <v>9.289907749999999</v>
+        <v>12.01995816666667</v>
       </c>
       <c r="I28" s="13">
-        <v>225759265.5361111</v>
+        <v>3844551272.395312</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L28" s="16">
         <v>12.5</v>
@@ -2242,7 +2341,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R28" s="9"/>
     </row>
@@ -2254,31 +2353,31 @@
         <v>47</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E29" s="11">
-        <v>44340</v>
+        <v>44288</v>
       </c>
       <c r="F29" s="12">
         <v>40000000</v>
       </c>
       <c r="G29" s="13">
-        <v>14423949.8</v>
+        <v>6814087.033333334</v>
       </c>
       <c r="H29" s="14">
-        <v>36.0598745</v>
+        <v>17.03521758333333</v>
       </c>
       <c r="I29" s="13">
-        <v>3618401197.548529</v>
+        <v>2014107572.546719</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L29" s="16">
         <v>12.5</v>
@@ -2288,7 +2387,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="R29" s="9"/>
     </row>
@@ -2300,31 +2399,31 @@
         <v>48</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E30" s="11">
-        <v>44288</v>
+        <v>44201</v>
       </c>
       <c r="F30" s="12">
         <v>40000000</v>
       </c>
       <c r="G30" s="13">
-        <v>20442261.1</v>
+        <v>11725779.76666667</v>
       </c>
       <c r="H30" s="14">
-        <v>51.10565275</v>
+        <v>29.31444941666667</v>
       </c>
       <c r="I30" s="13">
-        <v>1696090587.407763</v>
+        <v>3637904900.00625</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L30" s="16">
         <v>12.5</v>
@@ -2334,7 +2433,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="R30" s="9"/>
     </row>
@@ -2346,31 +2445,31 @@
         <v>49</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E31" s="11">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="F31" s="12">
         <v>40000000</v>
       </c>
       <c r="G31" s="13">
-        <v>35177339.3</v>
+        <v>3745218.8</v>
       </c>
       <c r="H31" s="14">
-        <v>87.94334825</v>
+        <v>9.363047</v>
       </c>
       <c r="I31" s="13">
-        <v>2530716452.178261</v>
+        <v>4793695015.21875</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L31" s="16">
         <v>12.5</v>
@@ -2380,7 +2479,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="R31" s="9"/>
     </row>
@@ -2392,10 +2491,10 @@
         <v>50</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E32" s="11">
         <v>44333</v>
@@ -2404,19 +2503,19 @@
         <v>40000000</v>
       </c>
       <c r="G32" s="13">
-        <v>11235656.4</v>
+        <v>0</v>
       </c>
       <c r="H32" s="14">
-        <v>28.089141</v>
+        <v>0</v>
       </c>
       <c r="I32" s="13">
-        <v>3334744358.413043</v>
+        <v>34040632290.83016</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L32" s="16">
         <v>12.5</v>
@@ -2426,7 +2525,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="R32" s="9"/>
     </row>
@@ -2438,31 +2537,31 @@
         <v>51</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E33" s="11">
-        <v>44333</v>
+        <v>44372</v>
       </c>
       <c r="F33" s="12">
         <v>40000000</v>
       </c>
       <c r="G33" s="13">
-        <v>0</v>
+        <v>6655980.366666666</v>
       </c>
       <c r="H33" s="14">
-        <v>0</v>
+        <v>16.63995091666667</v>
       </c>
       <c r="I33" s="13">
-        <v>34040632290.83016</v>
+        <v>1943306630.427813</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L33" s="16">
         <v>12.5</v>
@@ -2472,7 +2571,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="R33" s="9"/>
     </row>
@@ -2484,31 +2583,31 @@
         <v>52</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E34" s="11">
-        <v>44372</v>
+        <v>44305</v>
       </c>
       <c r="F34" s="12">
         <v>40000000</v>
       </c>
       <c r="G34" s="13">
-        <v>19967941.1</v>
+        <v>9115326</v>
       </c>
       <c r="H34" s="14">
-        <v>49.91985274999999</v>
+        <v>22.788315</v>
       </c>
       <c r="I34" s="13">
-        <v>1351865482.036739</v>
+        <v>2647797185.396563</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L34" s="16">
         <v>12.5</v>
@@ -2518,7 +2617,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="R34" s="9"/>
     </row>
@@ -2530,31 +2629,31 @@
         <v>53</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E35" s="11">
-        <v>44305</v>
+        <v>44337</v>
       </c>
       <c r="F35" s="12">
         <v>40000000</v>
       </c>
       <c r="G35" s="13">
-        <v>27345978</v>
+        <v>16773704.7</v>
       </c>
       <c r="H35" s="14">
-        <v>68.36494500000001</v>
+        <v>41.93426175</v>
       </c>
       <c r="I35" s="13">
-        <v>1841945868.101957</v>
+        <v>3322935916.539062</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L35" s="16">
         <v>12.5</v>
@@ -2564,7 +2663,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="R35" s="9"/>
     </row>
@@ -2576,31 +2675,31 @@
         <v>54</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E36" s="11">
-        <v>44337</v>
+        <v>44438</v>
       </c>
       <c r="F36" s="12">
         <v>40000000</v>
       </c>
       <c r="G36" s="13">
-        <v>50321114.1</v>
+        <v>1580787.28125</v>
       </c>
       <c r="H36" s="14">
-        <v>125.80278525</v>
+        <v>3.951968203125</v>
       </c>
       <c r="I36" s="13">
-        <v>2311607594.11413</v>
+        <v>448977074.4336364</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L36" s="16">
         <v>12.5</v>
@@ -2610,7 +2709,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="R36" s="9"/>
     </row>
@@ -2622,31 +2721,31 @@
         <v>55</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E37" s="11">
-        <v>44438</v>
+        <v>44383</v>
       </c>
       <c r="F37" s="12">
         <v>40000000</v>
       </c>
       <c r="G37" s="13">
-        <v>1686173.1</v>
+        <v>8316915.965517242</v>
       </c>
       <c r="H37" s="14">
-        <v>4.21543275</v>
+        <v>20.79228991379311</v>
       </c>
       <c r="I37" s="13">
-        <v>379903678.3669231</v>
+        <v>1862771578.383606</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L37" s="16">
         <v>12.5</v>
@@ -2656,7 +2755,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="R37" s="9"/>
     </row>
@@ -2668,31 +2767,31 @@
         <v>56</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E38" s="11">
-        <v>44383</v>
+        <v>44140</v>
       </c>
       <c r="F38" s="12">
         <v>40000000</v>
       </c>
       <c r="G38" s="13">
-        <v>24119056.3</v>
+        <v>11806361.9</v>
       </c>
       <c r="H38" s="14">
-        <v>60.29764075000001</v>
+        <v>29.51590475</v>
       </c>
       <c r="I38" s="13">
-        <v>1369024894.956626</v>
+        <v>2790797981.105625</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L38" s="16">
         <v>12.5</v>
@@ -2702,7 +2801,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="R38" s="9"/>
     </row>
@@ -2714,31 +2813,31 @@
         <v>57</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E39" s="11">
-        <v>44140</v>
+        <v>44322</v>
       </c>
       <c r="F39" s="12">
         <v>40000000</v>
       </c>
       <c r="G39" s="13">
-        <v>35419085.7</v>
+        <v>2843067.4</v>
       </c>
       <c r="H39" s="14">
-        <v>88.54771425000001</v>
+        <v>7.1076685</v>
       </c>
       <c r="I39" s="13">
-        <v>2706228345.314546</v>
+        <v>1737433906.63125</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L39" s="16">
         <v>12.5</v>
@@ -2748,7 +2847,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="R39" s="9"/>
     </row>
@@ -2760,31 +2859,31 @@
         <v>58</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E40" s="11">
-        <v>44322</v>
+        <v>44410</v>
       </c>
       <c r="F40" s="12">
         <v>40000000</v>
       </c>
       <c r="G40" s="13">
-        <v>8529202.199999999</v>
+        <v>0</v>
       </c>
       <c r="H40" s="14">
-        <v>21.3230055</v>
+        <v>0</v>
       </c>
       <c r="I40" s="13">
-        <v>1737433906.63125</v>
+        <v>4223865135.029523</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L40" s="16">
         <v>12.5</v>
@@ -2794,7 +2893,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="R40" s="9"/>
     </row>
@@ -2806,13 +2905,13 @@
         <v>59</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E41" s="11">
-        <v>44410</v>
+        <v>44095</v>
       </c>
       <c r="F41" s="12">
         <v>40000000</v>
@@ -2824,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="13">
-        <v>4223865135.029523</v>
+        <v>10837091506.375</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L41" s="16">
         <v>12.5</v>
@@ -2840,7 +2939,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="R41" s="9"/>
     </row>
@@ -2852,31 +2951,31 @@
         <v>60</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E42" s="11">
-        <v>44095</v>
+        <v>44249</v>
       </c>
       <c r="F42" s="12">
         <v>40000000</v>
       </c>
       <c r="G42" s="13">
-        <v>0</v>
+        <v>11349087.53333333</v>
       </c>
       <c r="H42" s="14">
-        <v>0</v>
+        <v>28.37271883333333</v>
       </c>
       <c r="I42" s="13">
-        <v>10837091506.375</v>
+        <v>2052692444.564063</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L42" s="16">
         <v>12.5</v>
@@ -2886,7 +2985,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="R42" s="9"/>
     </row>
@@ -2898,31 +2997,31 @@
         <v>61</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E43" s="11">
-        <v>44249</v>
+        <v>44336</v>
       </c>
       <c r="F43" s="12">
         <v>40000000</v>
       </c>
       <c r="G43" s="13">
-        <v>34047262.6</v>
+        <v>6011733.399999999</v>
       </c>
       <c r="H43" s="14">
-        <v>85.11815650000001</v>
+        <v>15.0293335</v>
       </c>
       <c r="I43" s="13">
-        <v>1931945830.177941</v>
+        <v>3961628680.560156</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L43" s="16">
         <v>12.5</v>
@@ -2932,7 +3031,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="R43" s="9"/>
     </row>
@@ -2944,31 +3043,31 @@
         <v>62</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E44" s="11">
-        <v>44336</v>
+        <v>44095</v>
       </c>
       <c r="F44" s="12">
         <v>40000000</v>
       </c>
       <c r="G44" s="13">
-        <v>18035200.2</v>
+        <v>0</v>
       </c>
       <c r="H44" s="14">
-        <v>45.0880005</v>
+        <v>0</v>
       </c>
       <c r="I44" s="13">
-        <v>2755915603.867935</v>
+        <v>5467044534.40625</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L44" s="16">
         <v>12.5</v>
@@ -2978,7 +3077,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="R44" s="9"/>
     </row>
@@ -2990,13 +3089,13 @@
         <v>63</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" s="11">
-        <v>44095</v>
+        <v>44333</v>
       </c>
       <c r="F45" s="12">
         <v>40000000</v>
@@ -3008,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="13">
-        <v>5467044534.40625</v>
+        <v>2517650201.21875</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L45" s="16">
         <v>12.5</v>
@@ -3024,7 +3123,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="R45" s="9"/>
     </row>
@@ -3036,13 +3135,13 @@
         <v>64</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E46" s="11">
-        <v>44333</v>
+        <v>44257</v>
       </c>
       <c r="F46" s="12">
         <v>40000000</v>
@@ -3054,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="I46" s="13">
-        <v>2517650201.21875</v>
+        <v>0</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L46" s="16">
         <v>12.5</v>
@@ -3070,7 +3169,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R46" s="9"/>
     </row>
@@ -3082,31 +3181,31 @@
         <v>65</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>154</v>
       </c>
       <c r="E47" s="11">
-        <v>44257</v>
+        <v>44397</v>
       </c>
       <c r="F47" s="12">
         <v>40000000</v>
       </c>
       <c r="G47" s="13">
-        <v>0</v>
+        <v>5367330.452054795</v>
       </c>
       <c r="H47" s="14">
-        <v>0</v>
+        <v>13.41832613013699</v>
       </c>
       <c r="I47" s="13">
-        <v>0</v>
+        <v>3088163740.987255</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L47" s="16">
         <v>12.5</v>
@@ -3116,7 +3215,7 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="R47" s="9"/>
     </row>
@@ -3128,31 +3227,31 @@
         <v>66</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E48" s="11">
-        <v>44397</v>
+        <v>44413</v>
       </c>
       <c r="F48" s="12">
         <v>40000000</v>
       </c>
       <c r="G48" s="13">
-        <v>13060504.1</v>
+        <v>13817045.73684211</v>
       </c>
       <c r="H48" s="14">
-        <v>32.65126025</v>
+        <v>34.54261434210527</v>
       </c>
       <c r="I48" s="13">
-        <v>2763093873.514913</v>
+        <v>461451113.4897435</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L48" s="16">
         <v>12.5</v>
@@ -3162,7 +3261,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="R48" s="9"/>
     </row>
@@ -3174,31 +3273,31 @@
         <v>67</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E49" s="11">
-        <v>44413</v>
+        <v>44362</v>
       </c>
       <c r="F49" s="12">
         <v>40000000</v>
       </c>
       <c r="G49" s="13">
-        <v>26252386.9</v>
+        <v>13413729.23333333</v>
       </c>
       <c r="H49" s="14">
-        <v>65.63096725</v>
+        <v>33.53432308333333</v>
       </c>
       <c r="I49" s="13">
-        <v>315729709.2298245</v>
+        <v>1947827471.35625</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L49" s="16">
         <v>12.5</v>
@@ -3208,7 +3307,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="R49" s="9"/>
     </row>
@@ -3220,31 +3319,31 @@
         <v>68</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E50" s="11">
-        <v>44362</v>
+        <v>44432</v>
       </c>
       <c r="F50" s="12">
         <v>40000000</v>
       </c>
       <c r="G50" s="13">
-        <v>40241187.7</v>
+        <v>14929336.02631579</v>
       </c>
       <c r="H50" s="14">
-        <v>100.60296925</v>
+        <v>37.32334006578947</v>
       </c>
       <c r="I50" s="13">
-        <v>1355010414.856522</v>
+        <v>1871943293.473077</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L50" s="16">
         <v>12.5</v>
@@ -3254,7 +3353,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="R50" s="9"/>
     </row>
@@ -3266,31 +3365,31 @@
         <v>69</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E51" s="11">
-        <v>44432</v>
+        <v>44427</v>
       </c>
       <c r="F51" s="12">
         <v>40000000</v>
       </c>
       <c r="G51" s="13">
-        <v>18910492.3</v>
+        <v>299686.8139534884</v>
       </c>
       <c r="H51" s="14">
-        <v>47.27623074999999</v>
+        <v>0.7492170348837209</v>
       </c>
       <c r="I51" s="13">
-        <v>1280803306.060526</v>
+        <v>61116852.93448275</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L51" s="16">
         <v>12.5</v>
@@ -3300,7 +3399,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="R51" s="9"/>
     </row>
@@ -3312,31 +3411,31 @@
         <v>70</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E52" s="11">
-        <v>44427</v>
+        <v>44425</v>
       </c>
       <c r="F52" s="12">
         <v>40000000</v>
       </c>
       <c r="G52" s="13">
-        <v>429551.1</v>
+        <v>3494219.866666667</v>
       </c>
       <c r="H52" s="14">
-        <v>1.07387775</v>
+        <v>8.735549666666667</v>
       </c>
       <c r="I52" s="13">
-        <v>41218342.67674419</v>
+        <v>685813083.8064516</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L52" s="16">
         <v>12.5</v>
@@ -3346,7 +3445,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="R52" s="9"/>
     </row>
@@ -3358,31 +3457,31 @@
         <v>71</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E53" s="11">
-        <v>44425</v>
+        <v>44434</v>
       </c>
       <c r="F53" s="12">
         <v>40000000</v>
       </c>
       <c r="G53" s="13">
-        <v>5241329.8</v>
+        <v>4211613.166666667</v>
       </c>
       <c r="H53" s="14">
-        <v>13.1033245</v>
+        <v>10.52903291666667</v>
       </c>
       <c r="I53" s="13">
-        <v>494423386</v>
+        <v>1288768680.966667</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L53" s="16">
         <v>12.5</v>
@@ -3392,7 +3491,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="R53" s="9"/>
     </row>
@@ -3404,31 +3503,31 @@
         <v>72</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E54" s="11">
-        <v>44434</v>
+        <v>44410</v>
       </c>
       <c r="F54" s="12">
         <v>40000000</v>
       </c>
       <c r="G54" s="13">
-        <v>5053935.8</v>
+        <v>12046093</v>
       </c>
       <c r="H54" s="14">
-        <v>12.6348395</v>
+        <v>30.1152325</v>
       </c>
       <c r="I54" s="13">
-        <v>1104658869.4</v>
+        <v>2853172328.449524</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L54" s="16">
         <v>12.5</v>
@@ -3438,7 +3537,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="R54" s="9"/>
     </row>
@@ -3450,31 +3549,31 @@
         <v>73</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E55" s="11">
-        <v>44410</v>
+        <v>44438</v>
       </c>
       <c r="F55" s="12">
         <v>40000000</v>
       </c>
       <c r="G55" s="13">
-        <v>24092186</v>
+        <v>664839.46875</v>
       </c>
       <c r="H55" s="14">
-        <v>60.230465</v>
+        <v>1.662098671875</v>
       </c>
       <c r="I55" s="13">
-        <v>2304485342.209231</v>
+        <v>73631696.35000001</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L55" s="16">
         <v>12.5</v>
@@ -3484,7 +3583,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="R55" s="9"/>
     </row>
@@ -3496,31 +3595,31 @@
         <v>74</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E56" s="11">
-        <v>44438</v>
+        <v>44336</v>
       </c>
       <c r="F56" s="12">
         <v>40000000</v>
       </c>
       <c r="G56" s="13">
-        <v>709162.1</v>
+        <v>16103210.63333333</v>
       </c>
       <c r="H56" s="14">
-        <v>1.77290525</v>
+        <v>40.25802658333333</v>
       </c>
       <c r="I56" s="13">
-        <v>53996577.32333334</v>
+        <v>1783250874.171875</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L56" s="16">
         <v>12.5</v>
@@ -3530,7 +3629,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="R56" s="9"/>
     </row>
@@ -3542,31 +3641,31 @@
         <v>75</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E57" s="11">
-        <v>44336</v>
+        <v>44431</v>
       </c>
       <c r="F57" s="12">
         <v>40000000</v>
       </c>
       <c r="G57" s="13">
-        <v>48309631.9</v>
+        <v>3621706.153846154</v>
       </c>
       <c r="H57" s="14">
-        <v>120.77407975</v>
+        <v>9.054265384615384</v>
       </c>
       <c r="I57" s="13">
-        <v>1501684946.671053</v>
+        <v>537107875.3085185</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L57" s="16">
         <v>12.5</v>
@@ -3576,7 +3675,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="R57" s="9"/>
     </row>
@@ -3588,31 +3687,31 @@
         <v>76</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E58" s="11">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="F58" s="12">
         <v>40000000</v>
       </c>
       <c r="G58" s="13">
-        <v>4708218</v>
+        <v>9881759.756756756</v>
       </c>
       <c r="H58" s="14">
-        <v>11.770545</v>
+        <v>24.70439939189189</v>
       </c>
       <c r="I58" s="13">
-        <v>371843913.6751282</v>
+        <v>1284279625.76</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L58" s="16">
         <v>12.5</v>
@@ -3622,7 +3721,7 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="R58" s="9"/>
     </row>
@@ -3634,31 +3733,31 @@
         <v>77</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>152</v>
       </c>
       <c r="E59" s="11">
-        <v>44433</v>
+        <v>44354</v>
       </c>
       <c r="F59" s="12">
         <v>40000000</v>
       </c>
       <c r="G59" s="13">
-        <v>12187503.7</v>
+        <v>10168820.1</v>
       </c>
       <c r="H59" s="14">
-        <v>30.46875925</v>
+        <v>25.42205025</v>
       </c>
       <c r="I59" s="13">
-        <v>1189147801.62963</v>
+        <v>8633827057.043907</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L59" s="16">
         <v>12.5</v>
@@ -3668,7 +3767,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="R59" s="9"/>
     </row>
@@ -3680,31 +3779,31 @@
         <v>78</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E60" s="11">
-        <v>44354</v>
+        <v>44333</v>
       </c>
       <c r="F60" s="12">
         <v>40000000</v>
       </c>
       <c r="G60" s="13">
-        <v>30506460.3</v>
+        <v>2238940.866666667</v>
       </c>
       <c r="H60" s="14">
-        <v>76.26615075000001</v>
+        <v>5.597352166666666</v>
       </c>
       <c r="I60" s="13">
-        <v>6279146950.577387</v>
+        <v>3005656238.973125</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L60" s="16">
         <v>12.5</v>
@@ -3714,7 +3813,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="R60" s="9"/>
     </row>
@@ -3726,31 +3825,31 @@
         <v>79</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E61" s="11">
-        <v>44333</v>
+        <v>44375</v>
       </c>
       <c r="F61" s="12">
         <v>40000000</v>
       </c>
       <c r="G61" s="13">
-        <v>6716822.6</v>
+        <v>6694837.933333334</v>
       </c>
       <c r="H61" s="14">
-        <v>16.7920565</v>
+        <v>16.73709483333333</v>
       </c>
       <c r="I61" s="13">
-        <v>2748028561.346857</v>
+        <v>1782086270.501563</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L61" s="16">
         <v>12.5</v>
@@ -3760,7 +3859,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="R61" s="9"/>
     </row>
@@ -3772,31 +3871,31 @@
         <v>80</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E62" s="11">
-        <v>44375</v>
+        <v>44337</v>
       </c>
       <c r="F62" s="12">
         <v>40000000</v>
       </c>
       <c r="G62" s="13">
-        <v>20084513.8</v>
+        <v>0</v>
       </c>
       <c r="H62" s="14">
-        <v>50.2112845</v>
+        <v>0</v>
       </c>
       <c r="I62" s="13">
-        <v>1677257666.354412</v>
+        <v>3260.671875</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L62" s="16">
         <v>12.5</v>
@@ -3806,7 +3905,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="R62" s="9"/>
     </row>
@@ -3818,31 +3917,31 @@
         <v>81</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>157</v>
       </c>
       <c r="E63" s="11">
-        <v>44337</v>
+        <v>44410</v>
       </c>
       <c r="F63" s="12">
         <v>40000000</v>
       </c>
       <c r="G63" s="13">
-        <v>0</v>
+        <v>8729182.949999999</v>
       </c>
       <c r="H63" s="14">
-        <v>0</v>
+        <v>21.822957375</v>
       </c>
       <c r="I63" s="13">
-        <v>3260.671875</v>
+        <v>3439406656.673809</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L63" s="16">
         <v>12.5</v>
@@ -3852,7 +3951,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="R63" s="9"/>
     </row>
@@ -3864,31 +3963,31 @@
         <v>82</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E64" s="11">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="F64" s="12">
         <v>40000000</v>
       </c>
       <c r="G64" s="13">
-        <v>17458365.9</v>
+        <v>3797259.6</v>
       </c>
       <c r="H64" s="14">
-        <v>43.64591475</v>
+        <v>9.493149000000001</v>
       </c>
       <c r="I64" s="13">
-        <v>2777982299.621154</v>
+        <v>2724133832.308125</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L64" s="16">
         <v>12.5</v>
@@ -3898,7 +3997,7 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="R64" s="9"/>
     </row>
@@ -3910,31 +4009,31 @@
         <v>83</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>156</v>
       </c>
       <c r="E65" s="11">
-        <v>44333</v>
+        <v>44362</v>
       </c>
       <c r="F65" s="12">
         <v>40000000</v>
       </c>
       <c r="G65" s="13">
-        <v>11391778.8</v>
+        <v>10103151.13333333</v>
       </c>
       <c r="H65" s="14">
-        <v>28.479447</v>
+        <v>25.25787783333333</v>
       </c>
       <c r="I65" s="13">
-        <v>1895049622.475217</v>
+        <v>4694600697.023438</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L65" s="16">
         <v>12.5</v>
@@ -3944,7 +4043,7 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="9" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="R65" s="9"/>
     </row>
@@ -3956,31 +4055,31 @@
         <v>84</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E66" s="11">
-        <v>44362</v>
+        <v>44333</v>
       </c>
       <c r="F66" s="12">
         <v>40000000</v>
       </c>
       <c r="G66" s="13">
-        <v>30309453.4</v>
+        <v>0</v>
       </c>
       <c r="H66" s="14">
-        <v>75.77363349999999</v>
+        <v>0</v>
       </c>
       <c r="I66" s="13">
-        <v>3265809180.538043</v>
+        <v>2902629716.6875</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L66" s="16">
         <v>12.5</v>
@@ -3990,7 +4089,7 @@
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="R66" s="9"/>
     </row>
@@ -4002,10 +4101,10 @@
         <v>85</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E67" s="11">
         <v>44333</v>
@@ -4020,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="I67" s="13">
-        <v>2902629716.6875</v>
+        <v>3944129010.90625</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L67" s="16">
         <v>12.5</v>
@@ -4036,7 +4135,7 @@
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="9" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="R67" s="9"/>
     </row>
@@ -4048,31 +4147,31 @@
         <v>86</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E68" s="11">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="F68" s="12">
         <v>40000000</v>
       </c>
       <c r="G68" s="13">
-        <v>0</v>
+        <v>6933120.649999999</v>
       </c>
       <c r="H68" s="14">
-        <v>0</v>
+        <v>17.332801625</v>
       </c>
       <c r="I68" s="13">
-        <v>3944129010.90625</v>
+        <v>2381586336.537143</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L68" s="16">
         <v>12.5</v>
@@ -4082,115 +4181,86 @@
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="9" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="R68" s="9"/>
     </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="8">
-        <v>63</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" s="11">
-        <v>44410</v>
-      </c>
-      <c r="F69" s="12">
-        <v>40000000</v>
-      </c>
-      <c r="G69" s="13">
-        <v>13866241.3</v>
-      </c>
-      <c r="H69" s="14">
-        <v>34.66560325</v>
-      </c>
-      <c r="I69" s="13">
-        <v>1667110435.576</v>
-      </c>
-      <c r="J69" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="L69" s="16">
-        <v>12.5</v>
-      </c>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="R69" s="9"/>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="A72" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
+    <row r="71" spans="1:18">
+      <c r="A71" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="B73" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="B74" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
+      <c r="B74" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="B75" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
     </row>
     <row r="76" spans="1:18">
       <c r="B76" s="20"/>
@@ -4243,48 +4313,48 @@
       <c r="O78" s="20"/>
       <c r="P78" s="20"/>
     </row>
-    <row r="79" spans="1:18">
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
+    <row r="80" spans="1:18">
+      <c r="B80" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
     </row>
     <row r="81" spans="2:16">
-      <c r="B81" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
+      <c r="B81" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
     </row>
     <row r="82" spans="2:16">
-      <c r="B82" s="21" t="s">
-        <v>170</v>
-      </c>
+      <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
@@ -4351,23 +4421,6 @@
       <c r="O85" s="20"/>
       <c r="P85" s="20"/>
     </row>
-    <row r="86" spans="2:16">
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="20"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A2:C3"/>
@@ -4376,16 +4429,16 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="B74:P74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="I75:P75"/>
-    <mergeCell ref="B76:H79"/>
-    <mergeCell ref="I76:P79"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="I81:P81"/>
-    <mergeCell ref="B82:H86"/>
-    <mergeCell ref="I82:P86"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="B73:P73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="I74:P74"/>
+    <mergeCell ref="B75:H78"/>
+    <mergeCell ref="I75:P78"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="I80:P80"/>
+    <mergeCell ref="B81:H85"/>
+    <mergeCell ref="I81:P85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoQuy/Q3.2021/Báo cáo review KH vip.xlsx
+++ b/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoQuy/Q3.2021/Báo cáo review KH vip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="206">
   <si>
     <t>SUBMISSION</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">     /2021/TTr-TRS</t>
   </si>
   <si>
-    <t>28/12/2021</t>
+    <t>29/12/2021</t>
   </si>
   <si>
     <t>To: Deputy General Director of Phu Hung Securities Corporation
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>Demote DP</t>
+  </si>
+  <si>
+    <t>Promote Silv PHS</t>
+  </si>
+  <si>
+    <t>Promote Gold PHS</t>
   </si>
   <si>
     <t>NGUYỄN TRÀ MY</t>
@@ -1421,7 +1427,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R8" s="9"/>
     </row>
@@ -1451,7 +1457,7 @@
         <v>31.8801165</v>
       </c>
       <c r="I9" s="13">
-        <v>2916562481.352188</v>
+        <v>2916562481.352187</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>158</v>
@@ -1513,7 +1519,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R10" s="9"/>
     </row>
@@ -1559,7 +1565,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R11" s="9"/>
     </row>
@@ -1583,19 +1589,19 @@
         <v>40000000</v>
       </c>
       <c r="G12" s="13">
-        <v>10242727.15</v>
+        <v>21124588.85</v>
       </c>
       <c r="H12" s="14">
-        <v>25.606817875</v>
+        <v>52.81147212499999</v>
       </c>
       <c r="I12" s="13">
-        <v>2420051877.864286</v>
+        <v>2498489777.845312</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>158</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L12" s="16">
         <v>12.5</v>
@@ -1651,7 +1657,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R13" s="9"/>
     </row>
@@ -1697,7 +1703,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R14" s="9"/>
     </row>
@@ -1743,7 +1749,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R15" s="9"/>
     </row>
@@ -1773,7 +1779,7 @@
         <v>6.763231583333333</v>
       </c>
       <c r="I16" s="13">
-        <v>6414739269.412344</v>
+        <v>6414739269.412343</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>158</v>
@@ -1835,7 +1841,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="R17" s="9"/>
     </row>
@@ -1865,7 +1871,7 @@
         <v>29.7833635</v>
       </c>
       <c r="I18" s="13">
-        <v>1849068160.057969</v>
+        <v>1849068160.057968</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>158</v>
@@ -1881,7 +1887,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R18" s="9"/>
     </row>
@@ -1911,7 +1917,7 @@
         <v>16.388416375</v>
       </c>
       <c r="I19" s="13">
-        <v>568518438.6452382</v>
+        <v>373090225.704687</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>158</v>
@@ -1927,7 +1933,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R19" s="9"/>
     </row>
@@ -1973,7 +1979,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R20" s="9"/>
     </row>
@@ -2019,7 +2025,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="R21" s="9"/>
     </row>
@@ -2065,7 +2071,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R22" s="9"/>
     </row>
@@ -2089,19 +2095,19 @@
         <v>40000000</v>
       </c>
       <c r="G23" s="13">
-        <v>7297825.657894737</v>
+        <v>24554838.4</v>
       </c>
       <c r="H23" s="14">
-        <v>18.24456414473685</v>
+        <v>61.387096</v>
       </c>
       <c r="I23" s="13">
-        <v>1623042238.5</v>
+        <v>1380359884.431406</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>158</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L23" s="16">
         <v>12.5</v>
@@ -2111,7 +2117,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="R23" s="9"/>
     </row>
@@ -2157,7 +2163,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="R24" s="9"/>
     </row>
@@ -2187,7 +2193,7 @@
         <v>1.45441125</v>
       </c>
       <c r="I25" s="13">
-        <v>1033341486.173809</v>
+        <v>768048878.304687</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>158</v>
@@ -2203,7 +2209,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="R25" s="9"/>
     </row>
@@ -2227,13 +2233,13 @@
         <v>40000000</v>
       </c>
       <c r="G26" s="13">
-        <v>16326765.92307692</v>
+        <v>18736986.8</v>
       </c>
       <c r="H26" s="14">
-        <v>40.81691480769231</v>
+        <v>46.84246700000001</v>
       </c>
       <c r="I26" s="13">
-        <v>2207980091.042222</v>
+        <v>1883183369.319843</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>158</v>
@@ -2249,7 +2255,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R26" s="9"/>
     </row>
@@ -2273,13 +2279,13 @@
         <v>40000000</v>
       </c>
       <c r="G27" s="13">
-        <v>3096635.916666667</v>
+        <v>8331791.3</v>
       </c>
       <c r="H27" s="14">
-        <v>7.741589791666667</v>
+        <v>20.82947825</v>
       </c>
       <c r="I27" s="13">
-        <v>338638898.3041667</v>
+        <v>338150016.585937</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>158</v>
@@ -2341,7 +2347,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="R28" s="9"/>
     </row>
@@ -2371,7 +2377,7 @@
         <v>17.03521758333333</v>
       </c>
       <c r="I29" s="13">
-        <v>2014107572.546719</v>
+        <v>2014107572.546718</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>158</v>
@@ -2433,7 +2439,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R30" s="9"/>
     </row>
@@ -2479,7 +2485,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R31" s="9"/>
     </row>
@@ -2509,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="13">
-        <v>34040632290.83016</v>
+        <v>34040632290.83015</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>158</v>
@@ -2525,7 +2531,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R32" s="9"/>
     </row>
@@ -2555,7 +2561,7 @@
         <v>16.63995091666667</v>
       </c>
       <c r="I33" s="13">
-        <v>1943306630.427813</v>
+        <v>1943306630.427812</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>158</v>
@@ -2601,7 +2607,7 @@
         <v>22.788315</v>
       </c>
       <c r="I34" s="13">
-        <v>2647797185.396563</v>
+        <v>2647797185.396562</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>158</v>
@@ -2617,7 +2623,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="R34" s="9"/>
     </row>
@@ -2663,7 +2669,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="R35" s="9"/>
     </row>
@@ -2687,13 +2693,13 @@
         <v>40000000</v>
       </c>
       <c r="G36" s="13">
-        <v>1580787.28125</v>
+        <v>1686173.1</v>
       </c>
       <c r="H36" s="14">
-        <v>3.951968203125</v>
+        <v>4.215432750000001</v>
       </c>
       <c r="I36" s="13">
-        <v>448977074.4336364</v>
+        <v>154335869.336562</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>158</v>
@@ -2709,7 +2715,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="R36" s="9"/>
     </row>
@@ -2733,13 +2739,13 @@
         <v>40000000</v>
       </c>
       <c r="G37" s="13">
-        <v>8316915.965517242</v>
+        <v>8817215.633333333</v>
       </c>
       <c r="H37" s="14">
-        <v>20.79228991379311</v>
+        <v>22.04303908333333</v>
       </c>
       <c r="I37" s="13">
-        <v>1862771578.383606</v>
+        <v>1881519438.912187</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>158</v>
@@ -2755,7 +2761,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="R37" s="9"/>
     </row>
@@ -2877,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="13">
-        <v>4223865135.029523</v>
+        <v>4085837898.360781</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>158</v>
@@ -2893,7 +2899,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R40" s="9"/>
     </row>
@@ -2969,7 +2975,7 @@
         <v>28.37271883333333</v>
       </c>
       <c r="I42" s="13">
-        <v>2052692444.564063</v>
+        <v>2052692444.564062</v>
       </c>
       <c r="J42" s="15" t="s">
         <v>158</v>
@@ -2985,7 +2991,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R42" s="9"/>
     </row>
@@ -3031,7 +3037,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="R43" s="9"/>
     </row>
@@ -3077,7 +3083,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R44" s="9"/>
     </row>
@@ -3123,7 +3129,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="R45" s="9"/>
     </row>
@@ -3169,7 +3175,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R46" s="9"/>
     </row>
@@ -3193,13 +3199,13 @@
         <v>40000000</v>
       </c>
       <c r="G47" s="13">
-        <v>5367330.452054795</v>
+        <v>11202244.8</v>
       </c>
       <c r="H47" s="14">
-        <v>13.41832613013699</v>
+        <v>28.005612</v>
       </c>
       <c r="I47" s="13">
-        <v>3088163740.987255</v>
+        <v>3278157577.066406</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>158</v>
@@ -3215,7 +3221,7 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R47" s="9"/>
     </row>
@@ -3239,13 +3245,13 @@
         <v>40000000</v>
       </c>
       <c r="G48" s="13">
-        <v>13817045.73684211</v>
+        <v>18164229.1</v>
       </c>
       <c r="H48" s="14">
-        <v>34.54261434210527</v>
+        <v>45.41057275000001</v>
       </c>
       <c r="I48" s="13">
-        <v>461451113.4897435</v>
+        <v>462067173.545312</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>158</v>
@@ -3261,7 +3267,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="R48" s="9"/>
     </row>
@@ -3307,7 +3313,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R49" s="9"/>
     </row>
@@ -3331,19 +3337,19 @@
         <v>40000000</v>
       </c>
       <c r="G50" s="13">
-        <v>14929336.02631579</v>
+        <v>69613241.40000001</v>
       </c>
       <c r="H50" s="14">
-        <v>37.32334006578947</v>
+        <v>174.0331035</v>
       </c>
       <c r="I50" s="13">
-        <v>1871943293.473077</v>
+        <v>1649805769.338906</v>
       </c>
       <c r="J50" s="15" t="s">
         <v>158</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L50" s="16">
         <v>12.5</v>
@@ -3353,7 +3359,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R50" s="9"/>
     </row>
@@ -3377,13 +3383,13 @@
         <v>40000000</v>
       </c>
       <c r="G51" s="13">
-        <v>299686.8139534884</v>
+        <v>772695.4</v>
       </c>
       <c r="H51" s="14">
-        <v>0.7492170348837209</v>
+        <v>1.9317385</v>
       </c>
       <c r="I51" s="13">
-        <v>61116852.93448275</v>
+        <v>47044018.90625</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>158</v>
@@ -3423,13 +3429,13 @@
         <v>40000000</v>
       </c>
       <c r="G52" s="13">
-        <v>3494219.866666667</v>
+        <v>2620664.9</v>
       </c>
       <c r="H52" s="14">
-        <v>8.735549666666667</v>
+        <v>6.55166225</v>
       </c>
       <c r="I52" s="13">
-        <v>685813083.8064516</v>
+        <v>332190712.46875</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>158</v>
@@ -3469,13 +3475,13 @@
         <v>40000000</v>
       </c>
       <c r="G53" s="13">
-        <v>4211613.166666667</v>
+        <v>12585933.9</v>
       </c>
       <c r="H53" s="14">
-        <v>10.52903291666667</v>
+        <v>31.46483475</v>
       </c>
       <c r="I53" s="13">
-        <v>1288768680.966667</v>
+        <v>1304788326.128125</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>158</v>
@@ -3491,7 +3497,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="R53" s="9"/>
     </row>
@@ -3515,13 +3521,13 @@
         <v>40000000</v>
       </c>
       <c r="G54" s="13">
-        <v>12046093</v>
+        <v>13646636.5</v>
       </c>
       <c r="H54" s="14">
-        <v>30.1152325</v>
+        <v>34.11659125</v>
       </c>
       <c r="I54" s="13">
-        <v>2853172328.449524</v>
+        <v>2631809807.772812</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>158</v>
@@ -3537,7 +3543,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="R54" s="9"/>
     </row>
@@ -3561,13 +3567,13 @@
         <v>40000000</v>
       </c>
       <c r="G55" s="13">
-        <v>664839.46875</v>
+        <v>709162.1</v>
       </c>
       <c r="H55" s="14">
-        <v>1.662098671875</v>
+        <v>1.77290525</v>
       </c>
       <c r="I55" s="13">
-        <v>73631696.35000001</v>
+        <v>25310895.620312</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>158</v>
@@ -3583,7 +3589,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R55" s="9"/>
     </row>
@@ -3653,13 +3659,13 @@
         <v>40000000</v>
       </c>
       <c r="G57" s="13">
-        <v>3621706.153846154</v>
+        <v>9454753.6</v>
       </c>
       <c r="H57" s="14">
-        <v>9.054265384615384</v>
+        <v>23.636884</v>
       </c>
       <c r="I57" s="13">
-        <v>537107875.3085185</v>
+        <v>441438897.380156</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>158</v>
@@ -3699,13 +3705,13 @@
         <v>40000000</v>
       </c>
       <c r="G58" s="13">
-        <v>9881759.756756756</v>
+        <v>12187503.7</v>
       </c>
       <c r="H58" s="14">
-        <v>24.70439939189189</v>
+        <v>30.46875925</v>
       </c>
       <c r="I58" s="13">
-        <v>1284279625.76</v>
+        <v>944323254.235294</v>
       </c>
       <c r="J58" s="15" t="s">
         <v>158</v>
@@ -3721,7 +3727,7 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="R58" s="9"/>
     </row>
@@ -3751,7 +3757,7 @@
         <v>25.42205025</v>
       </c>
       <c r="I59" s="13">
-        <v>8633827057.043907</v>
+        <v>8633827057.043905</v>
       </c>
       <c r="J59" s="15" t="s">
         <v>158</v>
@@ -3767,7 +3773,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R59" s="9"/>
     </row>
@@ -3813,7 +3819,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="R60" s="9"/>
     </row>
@@ -3843,7 +3849,7 @@
         <v>16.73709483333333</v>
       </c>
       <c r="I61" s="13">
-        <v>1782086270.501563</v>
+        <v>1782086270.501562</v>
       </c>
       <c r="J61" s="15" t="s">
         <v>158</v>
@@ -3859,7 +3865,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R61" s="9"/>
     </row>
@@ -3905,7 +3911,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R62" s="9"/>
     </row>
@@ -3929,13 +3935,13 @@
         <v>40000000</v>
       </c>
       <c r="G63" s="13">
-        <v>8729182.949999999</v>
+        <v>9178443.75</v>
       </c>
       <c r="H63" s="14">
-        <v>21.822957375</v>
+        <v>22.946109375</v>
       </c>
       <c r="I63" s="13">
-        <v>3439406656.673809</v>
+        <v>3733565751.94375</v>
       </c>
       <c r="J63" s="15" t="s">
         <v>158</v>
@@ -3951,7 +3957,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R63" s="9"/>
     </row>
@@ -3997,7 +4003,7 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R64" s="9"/>
     </row>
@@ -4027,7 +4033,7 @@
         <v>25.25787783333333</v>
       </c>
       <c r="I65" s="13">
-        <v>4694600697.023438</v>
+        <v>4694600697.023437</v>
       </c>
       <c r="J65" s="15" t="s">
         <v>158</v>
@@ -4043,7 +4049,7 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R65" s="9"/>
     </row>
@@ -4089,7 +4095,7 @@
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R66" s="9"/>
     </row>
@@ -4135,7 +4141,7 @@
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="R67" s="9"/>
     </row>
@@ -4159,13 +4165,13 @@
         <v>40000000</v>
       </c>
       <c r="G68" s="13">
-        <v>6933120.649999999</v>
+        <v>8867735.799999999</v>
       </c>
       <c r="H68" s="14">
-        <v>17.332801625</v>
+        <v>22.1693395</v>
       </c>
       <c r="I68" s="13">
-        <v>2381586336.537143</v>
+        <v>2328341934.29625</v>
       </c>
       <c r="J68" s="15" t="s">
         <v>158</v>
@@ -4181,13 +4187,13 @@
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R68" s="9"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -4207,7 +4213,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -4226,7 +4232,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="B74" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -4235,7 +4241,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
@@ -4315,7 +4321,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="B80" s="19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
@@ -4324,7 +4330,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
@@ -4336,7 +4342,7 @@
     </row>
     <row r="81" spans="2:16">
       <c r="B81" s="21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>

--- a/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoQuy/Q3.2021/Báo cáo review KH vip.xlsx
+++ b/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoQuy/Q3.2021/Báo cáo review KH vip.xlsx
@@ -1359,10 +1359,10 @@
         <v>40000000</v>
       </c>
       <c r="G7" s="13">
-        <v>13783084.96666667</v>
+        <v>13783727.76666667</v>
       </c>
       <c r="H7" s="14">
-        <v>34.45771241666667</v>
+        <v>34.45931941666666</v>
       </c>
       <c r="I7" s="13">
         <v>1646110103.2625</v>
@@ -1497,10 +1497,10 @@
         <v>40000000</v>
       </c>
       <c r="G10" s="13">
-        <v>5225</v>
+        <v>4987.5</v>
       </c>
       <c r="H10" s="14">
-        <v>0.0130625</v>
+        <v>0.01246875</v>
       </c>
       <c r="I10" s="13">
         <v>24188933524.58906</v>
@@ -1543,10 +1543,10 @@
         <v>40000000</v>
       </c>
       <c r="G11" s="13">
-        <v>9251821.033333333</v>
+        <v>9309311.533333333</v>
       </c>
       <c r="H11" s="14">
-        <v>23.12955258333333</v>
+        <v>23.27327883333333</v>
       </c>
       <c r="I11" s="13">
         <v>4830892881.295</v>
@@ -1589,10 +1589,10 @@
         <v>40000000</v>
       </c>
       <c r="G12" s="13">
-        <v>21124588.85</v>
+        <v>21121810.1</v>
       </c>
       <c r="H12" s="14">
-        <v>52.81147212499999</v>
+        <v>52.80452524999999</v>
       </c>
       <c r="I12" s="13">
         <v>2498489777.845312</v>
@@ -1635,10 +1635,10 @@
         <v>40000000</v>
       </c>
       <c r="G13" s="13">
-        <v>9699897.533333333</v>
+        <v>9659102.233333332</v>
       </c>
       <c r="H13" s="14">
-        <v>24.24974383333333</v>
+        <v>24.14775558333333</v>
       </c>
       <c r="I13" s="13">
         <v>4132701901.90375</v>
@@ -1773,10 +1773,10 @@
         <v>40000000</v>
       </c>
       <c r="G16" s="13">
-        <v>2705292.633333333</v>
+        <v>2727025.233333333</v>
       </c>
       <c r="H16" s="14">
-        <v>6.763231583333333</v>
+        <v>6.817563083333333</v>
       </c>
       <c r="I16" s="13">
         <v>6414739269.412343</v>
@@ -1819,10 +1819,10 @@
         <v>40000000</v>
       </c>
       <c r="G17" s="13">
-        <v>7495168.933333334</v>
+        <v>7551904.733333333</v>
       </c>
       <c r="H17" s="14">
-        <v>18.73792233333333</v>
+        <v>18.87976183333333</v>
       </c>
       <c r="I17" s="13">
         <v>2681058277.15625</v>
@@ -1865,10 +1865,10 @@
         <v>40000000</v>
       </c>
       <c r="G18" s="13">
-        <v>11913345.4</v>
+        <v>11941130</v>
       </c>
       <c r="H18" s="14">
-        <v>29.7833635</v>
+        <v>29.852825</v>
       </c>
       <c r="I18" s="13">
         <v>1849068160.057968</v>
@@ -1911,7 +1911,7 @@
         <v>40000000</v>
       </c>
       <c r="G19" s="13">
-        <v>6555366.550000001</v>
+        <v>6555366.55</v>
       </c>
       <c r="H19" s="14">
         <v>16.388416375</v>
@@ -2003,10 +2003,10 @@
         <v>40000000</v>
       </c>
       <c r="G21" s="13">
-        <v>4130953.7</v>
+        <v>4101407.7</v>
       </c>
       <c r="H21" s="14">
-        <v>10.32738425</v>
+        <v>10.25351925</v>
       </c>
       <c r="I21" s="13">
         <v>3537716339.2125</v>
@@ -2049,10 +2049,10 @@
         <v>40000000</v>
       </c>
       <c r="G22" s="13">
-        <v>13373392.26666667</v>
+        <v>13385260.56666667</v>
       </c>
       <c r="H22" s="14">
-        <v>33.43348066666667</v>
+        <v>33.46315141666667</v>
       </c>
       <c r="I22" s="13">
         <v>10112848002.3625</v>
@@ -2095,10 +2095,10 @@
         <v>40000000</v>
       </c>
       <c r="G23" s="13">
-        <v>24554838.4</v>
+        <v>24653339.2</v>
       </c>
       <c r="H23" s="14">
-        <v>61.387096</v>
+        <v>61.633348</v>
       </c>
       <c r="I23" s="13">
         <v>1380359884.431406</v>
@@ -2141,10 +2141,10 @@
         <v>40000000</v>
       </c>
       <c r="G24" s="13">
-        <v>10107304.26666667</v>
+        <v>10093403.16666667</v>
       </c>
       <c r="H24" s="14">
-        <v>25.26826066666667</v>
+        <v>25.23350791666666</v>
       </c>
       <c r="I24" s="13">
         <v>3468138922.597656</v>
@@ -2233,10 +2233,10 @@
         <v>40000000</v>
       </c>
       <c r="G26" s="13">
-        <v>18736986.8</v>
+        <v>18781185.5</v>
       </c>
       <c r="H26" s="14">
-        <v>46.84246700000001</v>
+        <v>46.95296375</v>
       </c>
       <c r="I26" s="13">
         <v>1883183369.319843</v>
@@ -2279,10 +2279,10 @@
         <v>40000000</v>
       </c>
       <c r="G27" s="13">
-        <v>8331791.3</v>
+        <v>8346564.2</v>
       </c>
       <c r="H27" s="14">
-        <v>20.82947825</v>
+        <v>20.8664105</v>
       </c>
       <c r="I27" s="13">
         <v>338150016.585937</v>
@@ -2371,10 +2371,10 @@
         <v>40000000</v>
       </c>
       <c r="G29" s="13">
-        <v>6814087.033333334</v>
+        <v>6841981.433333334</v>
       </c>
       <c r="H29" s="14">
-        <v>17.03521758333333</v>
+        <v>17.10495358333333</v>
       </c>
       <c r="I29" s="13">
         <v>2014107572.546718</v>
@@ -2417,10 +2417,10 @@
         <v>40000000</v>
       </c>
       <c r="G30" s="13">
-        <v>11725779.76666667</v>
+        <v>11726022.16666667</v>
       </c>
       <c r="H30" s="14">
-        <v>29.31444941666667</v>
+        <v>29.31505541666666</v>
       </c>
       <c r="I30" s="13">
         <v>3637904900.00625</v>
@@ -2555,10 +2555,10 @@
         <v>40000000</v>
       </c>
       <c r="G33" s="13">
-        <v>6655980.366666666</v>
+        <v>6705802.266666667</v>
       </c>
       <c r="H33" s="14">
-        <v>16.63995091666667</v>
+        <v>16.76450566666666</v>
       </c>
       <c r="I33" s="13">
         <v>1943306630.427812</v>
@@ -2601,10 +2601,10 @@
         <v>40000000</v>
       </c>
       <c r="G34" s="13">
-        <v>9115326</v>
+        <v>9183405.299999999</v>
       </c>
       <c r="H34" s="14">
-        <v>22.788315</v>
+        <v>22.95851325</v>
       </c>
       <c r="I34" s="13">
         <v>2647797185.396562</v>
@@ -2647,10 +2647,10 @@
         <v>40000000</v>
       </c>
       <c r="G35" s="13">
-        <v>16773704.7</v>
+        <v>16844272.6</v>
       </c>
       <c r="H35" s="14">
-        <v>41.93426175</v>
+        <v>42.1106815</v>
       </c>
       <c r="I35" s="13">
         <v>3322935916.539062</v>
@@ -2693,10 +2693,10 @@
         <v>40000000</v>
       </c>
       <c r="G36" s="13">
-        <v>1686173.1</v>
+        <v>1694868.3</v>
       </c>
       <c r="H36" s="14">
-        <v>4.215432750000001</v>
+        <v>4.23717075</v>
       </c>
       <c r="I36" s="13">
         <v>154335869.336562</v>
@@ -2739,10 +2739,10 @@
         <v>40000000</v>
       </c>
       <c r="G37" s="13">
-        <v>8817215.633333333</v>
+        <v>8782562.933333334</v>
       </c>
       <c r="H37" s="14">
-        <v>22.04303908333333</v>
+        <v>21.95640733333333</v>
       </c>
       <c r="I37" s="13">
         <v>1881519438.912187</v>
@@ -2785,10 +2785,10 @@
         <v>40000000</v>
       </c>
       <c r="G38" s="13">
-        <v>11806361.9</v>
+        <v>11808106.2</v>
       </c>
       <c r="H38" s="14">
-        <v>29.51590475</v>
+        <v>29.5202655</v>
       </c>
       <c r="I38" s="13">
         <v>2790797981.105625</v>
@@ -2969,10 +2969,10 @@
         <v>40000000</v>
       </c>
       <c r="G42" s="13">
-        <v>11349087.53333333</v>
+        <v>11362976.33333333</v>
       </c>
       <c r="H42" s="14">
-        <v>28.37271883333333</v>
+        <v>28.40744083333334</v>
       </c>
       <c r="I42" s="13">
         <v>2052692444.564062</v>
@@ -3015,10 +3015,10 @@
         <v>40000000</v>
       </c>
       <c r="G43" s="13">
-        <v>6011733.399999999</v>
+        <v>5990179</v>
       </c>
       <c r="H43" s="14">
-        <v>15.0293335</v>
+        <v>14.9754475</v>
       </c>
       <c r="I43" s="13">
         <v>3961628680.560156</v>
@@ -3199,10 +3199,10 @@
         <v>40000000</v>
       </c>
       <c r="G47" s="13">
-        <v>11202244.8</v>
+        <v>11166638.7</v>
       </c>
       <c r="H47" s="14">
-        <v>28.005612</v>
+        <v>27.91659675</v>
       </c>
       <c r="I47" s="13">
         <v>3278157577.066406</v>
@@ -3245,10 +3245,10 @@
         <v>40000000</v>
       </c>
       <c r="G48" s="13">
-        <v>18164229.1</v>
+        <v>18159675.4</v>
       </c>
       <c r="H48" s="14">
-        <v>45.41057275000001</v>
+        <v>45.3991885</v>
       </c>
       <c r="I48" s="13">
         <v>462067173.545312</v>
@@ -3291,10 +3291,10 @@
         <v>40000000</v>
       </c>
       <c r="G49" s="13">
-        <v>13413729.23333333</v>
+        <v>13417658.23333333</v>
       </c>
       <c r="H49" s="14">
-        <v>33.53432308333333</v>
+        <v>33.54414558333333</v>
       </c>
       <c r="I49" s="13">
         <v>1947827471.35625</v>
@@ -3337,10 +3337,10 @@
         <v>40000000</v>
       </c>
       <c r="G50" s="13">
-        <v>69613241.40000001</v>
+        <v>69664359.3</v>
       </c>
       <c r="H50" s="14">
-        <v>174.0331035</v>
+        <v>174.16089825</v>
       </c>
       <c r="I50" s="13">
         <v>1649805769.338906</v>
@@ -3383,10 +3383,10 @@
         <v>40000000</v>
       </c>
       <c r="G51" s="13">
-        <v>772695.4</v>
+        <v>772894.3</v>
       </c>
       <c r="H51" s="14">
-        <v>1.9317385</v>
+        <v>1.93223575</v>
       </c>
       <c r="I51" s="13">
         <v>47044018.90625</v>
@@ -3429,10 +3429,10 @@
         <v>40000000</v>
       </c>
       <c r="G52" s="13">
-        <v>2620664.9</v>
+        <v>2659702.7</v>
       </c>
       <c r="H52" s="14">
-        <v>6.55166225</v>
+        <v>6.649256749999999</v>
       </c>
       <c r="I52" s="13">
         <v>332190712.46875</v>
@@ -3475,10 +3475,10 @@
         <v>40000000</v>
       </c>
       <c r="G53" s="13">
-        <v>12585933.9</v>
+        <v>12594268.2</v>
       </c>
       <c r="H53" s="14">
-        <v>31.46483475</v>
+        <v>31.4856705</v>
       </c>
       <c r="I53" s="13">
         <v>1304788326.128125</v>
@@ -3521,10 +3521,10 @@
         <v>40000000</v>
       </c>
       <c r="G54" s="13">
-        <v>13646636.5</v>
+        <v>13661332.75</v>
       </c>
       <c r="H54" s="14">
-        <v>34.11659125</v>
+        <v>34.153331875</v>
       </c>
       <c r="I54" s="13">
         <v>2631809807.772812</v>
@@ -3567,10 +3567,10 @@
         <v>40000000</v>
       </c>
       <c r="G55" s="13">
-        <v>709162.1</v>
+        <v>710228.6</v>
       </c>
       <c r="H55" s="14">
-        <v>1.77290525</v>
+        <v>1.7755715</v>
       </c>
       <c r="I55" s="13">
         <v>25310895.620312</v>
@@ -3613,10 +3613,10 @@
         <v>40000000</v>
       </c>
       <c r="G56" s="13">
-        <v>16103210.63333333</v>
+        <v>16037336.63333333</v>
       </c>
       <c r="H56" s="14">
-        <v>40.25802658333333</v>
+        <v>40.09334158333333</v>
       </c>
       <c r="I56" s="13">
         <v>1783250874.171875</v>
@@ -3659,10 +3659,10 @@
         <v>40000000</v>
       </c>
       <c r="G57" s="13">
-        <v>9454753.6</v>
+        <v>9435207.1</v>
       </c>
       <c r="H57" s="14">
-        <v>23.636884</v>
+        <v>23.58801775</v>
       </c>
       <c r="I57" s="13">
         <v>441438897.380156</v>
@@ -3705,10 +3705,10 @@
         <v>40000000</v>
       </c>
       <c r="G58" s="13">
-        <v>12187503.7</v>
+        <v>12275608.6</v>
       </c>
       <c r="H58" s="14">
-        <v>30.46875925</v>
+        <v>30.6890215</v>
       </c>
       <c r="I58" s="13">
         <v>944323254.235294</v>
@@ -3751,10 +3751,10 @@
         <v>40000000</v>
       </c>
       <c r="G59" s="13">
-        <v>10168820.1</v>
+        <v>10128291.3</v>
       </c>
       <c r="H59" s="14">
-        <v>25.42205025</v>
+        <v>25.32072824999999</v>
       </c>
       <c r="I59" s="13">
         <v>8633827057.043905</v>
@@ -3797,10 +3797,10 @@
         <v>40000000</v>
       </c>
       <c r="G60" s="13">
-        <v>2238940.866666667</v>
+        <v>2185282.166666667</v>
       </c>
       <c r="H60" s="14">
-        <v>5.597352166666666</v>
+        <v>5.463205416666667</v>
       </c>
       <c r="I60" s="13">
         <v>3005656238.973125</v>
@@ -3843,10 +3843,10 @@
         <v>40000000</v>
       </c>
       <c r="G61" s="13">
-        <v>6694837.933333334</v>
+        <v>6729826.333333333</v>
       </c>
       <c r="H61" s="14">
-        <v>16.73709483333333</v>
+        <v>16.82456583333333</v>
       </c>
       <c r="I61" s="13">
         <v>1782086270.501562</v>
@@ -3935,10 +3935,10 @@
         <v>40000000</v>
       </c>
       <c r="G63" s="13">
-        <v>9178443.75</v>
+        <v>9236854.35</v>
       </c>
       <c r="H63" s="14">
-        <v>22.946109375</v>
+        <v>23.092135875</v>
       </c>
       <c r="I63" s="13">
         <v>3733565751.94375</v>
@@ -3981,10 +3981,10 @@
         <v>40000000</v>
       </c>
       <c r="G64" s="13">
-        <v>3797259.6</v>
+        <v>3840650</v>
       </c>
       <c r="H64" s="14">
-        <v>9.493149000000001</v>
+        <v>9.601625</v>
       </c>
       <c r="I64" s="13">
         <v>2724133832.308125</v>
@@ -4027,10 +4027,10 @@
         <v>40000000</v>
       </c>
       <c r="G65" s="13">
-        <v>10103151.13333333</v>
+        <v>10153145.73333333</v>
       </c>
       <c r="H65" s="14">
-        <v>25.25787783333333</v>
+        <v>25.38286433333333</v>
       </c>
       <c r="I65" s="13">
         <v>4694600697.023437</v>
@@ -4165,10 +4165,10 @@
         <v>40000000</v>
       </c>
       <c r="G68" s="13">
-        <v>8867735.799999999</v>
+        <v>8891534.799999999</v>
       </c>
       <c r="H68" s="14">
-        <v>22.1693395</v>
+        <v>22.228837</v>
       </c>
       <c r="I68" s="13">
         <v>2328341934.29625</v>

--- a/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoQuy/Q3.2021/Báo cáo review KH vip.xlsx
+++ b/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoQuy/Q3.2021/Báo cáo review KH vip.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">     /2021/TTr-TRS</t>
   </si>
   <si>
-    <t>29/12/2021</t>
+    <t>30/12/2021</t>
   </si>
   <si>
     <t>To: Deputy General Director of Phu Hung Securities Corporation

--- a/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoQuy/Q3.2021/Báo cáo review KH vip.xlsx
+++ b/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoQuy/Q3.2021/Báo cáo review KH vip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="336">
   <si>
     <t>SUBMISSION</t>
   </si>
@@ -37,7 +37,7 @@
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> REVIEW VIP (THE END OF SEPTEMBER, 2021)</t>
+      <t xml:space="preserve"> REVIEW VIP (THE END OF DECEMBER, 2021)</t>
     </r>
   </si>
   <si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">     /2021/TTr-TRS</t>
   </si>
   <si>
-    <t>30/12/2021</t>
+    <t>31/12/2021</t>
   </si>
   <si>
     <t>To: Deputy General Director of Phu Hung Securities Corporation
@@ -93,7 +93,7 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>Group &amp; Deal đợt 30.09.2021</t>
+    <t>Group &amp; Deal đợt 30.12.2021</t>
   </si>
   <si>
     <t>Opinion of Location Manager</t>
@@ -117,9 +117,15 @@
     <t>022C777060</t>
   </si>
   <si>
+    <t>022C023489</t>
+  </si>
+  <si>
     <t>022C023710</t>
   </si>
   <si>
+    <t>022C004835</t>
+  </si>
+  <si>
     <t>022C004883</t>
   </si>
   <si>
@@ -132,6 +138,9 @@
     <t>022C008322</t>
   </si>
   <si>
+    <t>022C023168</t>
+  </si>
+  <si>
     <t>022C001114</t>
   </si>
   <si>
@@ -141,12 +150,42 @@
     <t>022C017356</t>
   </si>
   <si>
+    <t>022C008070</t>
+  </si>
+  <si>
     <t>022C025907</t>
   </si>
   <si>
+    <t>022C098388</t>
+  </si>
+  <si>
+    <t>022C025241</t>
+  </si>
+  <si>
+    <t>022C091686</t>
+  </si>
+  <si>
+    <t>022C018115</t>
+  </si>
+  <si>
     <t>022C100592</t>
   </si>
   <si>
+    <t>022C099995</t>
+  </si>
+  <si>
+    <t>022C086559</t>
+  </si>
+  <si>
+    <t>022C029789</t>
+  </si>
+  <si>
+    <t>022C058686</t>
+  </si>
+  <si>
+    <t>022C100394</t>
+  </si>
+  <si>
     <t>022C128668</t>
   </si>
   <si>
@@ -156,27 +195,63 @@
     <t>022C016216</t>
   </si>
   <si>
+    <t>022C014586</t>
+  </si>
+  <si>
     <t>022C000777</t>
   </si>
   <si>
+    <t>022C051151</t>
+  </si>
+  <si>
     <t>022C023097</t>
   </si>
   <si>
+    <t>022C027818</t>
+  </si>
+  <si>
     <t>022C106785</t>
   </si>
   <si>
+    <t>022C033330</t>
+  </si>
+  <si>
+    <t>022C017886</t>
+  </si>
+  <si>
+    <t>022C050812</t>
+  </si>
+  <si>
+    <t>022C017784</t>
+  </si>
+  <si>
     <t>022C014553</t>
   </si>
   <si>
+    <t>022C063966</t>
+  </si>
+  <si>
+    <t>022C087731</t>
+  </si>
+  <si>
+    <t>022C017581</t>
+  </si>
+  <si>
     <t>022C004743</t>
   </si>
   <si>
+    <t>022C009995</t>
+  </si>
+  <si>
     <t>022C107799</t>
   </si>
   <si>
     <t>022C777999</t>
   </si>
   <si>
+    <t>022C064372</t>
+  </si>
+  <si>
     <t>022C089981</t>
   </si>
   <si>
@@ -195,27 +270,57 @@
     <t>022C006487</t>
   </si>
   <si>
+    <t>022C079964</t>
+  </si>
+  <si>
     <t>022C299666</t>
   </si>
   <si>
+    <t>022C040860</t>
+  </si>
+  <si>
+    <t>022C040545</t>
+  </si>
+  <si>
     <t>022C025906</t>
   </si>
   <si>
+    <t>022C014217</t>
+  </si>
+  <si>
     <t>022C667788</t>
   </si>
   <si>
+    <t>022C025586</t>
+  </si>
+  <si>
     <t>022C023732</t>
   </si>
   <si>
     <t>022C028080</t>
   </si>
   <si>
+    <t>022C027920</t>
+  </si>
+  <si>
     <t>022C077868</t>
   </si>
   <si>
+    <t>022C088928</t>
+  </si>
+  <si>
+    <t>022C004911</t>
+  </si>
+  <si>
     <t>022C018956</t>
   </si>
   <si>
+    <t>022C002768</t>
+  </si>
+  <si>
+    <t>022C019546</t>
+  </si>
+  <si>
     <t>022C203979</t>
   </si>
   <si>
@@ -234,18 +339,39 @@
     <t>022C100289</t>
   </si>
   <si>
+    <t>022C968866</t>
+  </si>
+  <si>
+    <t>022C089798</t>
+  </si>
+  <si>
     <t>022C026124</t>
   </si>
   <si>
+    <t>022C032608</t>
+  </si>
+  <si>
+    <t>022C010368</t>
+  </si>
+  <si>
     <t>022C005134</t>
   </si>
   <si>
+    <t>022C089766</t>
+  </si>
+  <si>
+    <t>022C029434</t>
+  </si>
+  <si>
     <t>022C024698</t>
   </si>
   <si>
     <t>022C023728</t>
   </si>
   <si>
+    <t>022C028669</t>
+  </si>
+  <si>
     <t>022C111974</t>
   </si>
   <si>
@@ -261,27 +387,57 @@
     <t>022C026111</t>
   </si>
   <si>
+    <t>022C019318</t>
+  </si>
+  <si>
     <t>022C102559</t>
   </si>
   <si>
     <t>022C029283</t>
   </si>
   <si>
+    <t>022C012862</t>
+  </si>
+  <si>
+    <t>022C000702</t>
+  </si>
+  <si>
     <t>022C881688</t>
   </si>
   <si>
     <t>022C001139</t>
   </si>
   <si>
+    <t>022C054119</t>
+  </si>
+  <si>
+    <t>022C028577</t>
+  </si>
+  <si>
+    <t>022C118999</t>
+  </si>
+  <si>
     <t>022C026883</t>
   </si>
   <si>
+    <t>022C024313</t>
+  </si>
+  <si>
     <t>022C060050</t>
   </si>
   <si>
+    <t>022C052288</t>
+  </si>
+  <si>
+    <t>022C029171</t>
+  </si>
+  <si>
     <t>022C026096</t>
   </si>
   <si>
+    <t>022C101307</t>
+  </si>
+  <si>
     <t>022C391960</t>
   </si>
   <si>
@@ -291,9 +447,21 @@
     <t>022C096989</t>
   </si>
   <si>
+    <t>022C119268</t>
+  </si>
+  <si>
+    <t>022C015768</t>
+  </si>
+  <si>
     <t>022C889999</t>
   </si>
   <si>
+    <t>022C079909</t>
+  </si>
+  <si>
+    <t>022C045568</t>
+  </si>
+  <si>
     <t>022C017727</t>
   </si>
   <si>
@@ -303,9 +471,15 @@
     <t>LƯU VINH KHOA</t>
   </si>
   <si>
+    <t>NGUYỄN HỮU PHONG</t>
+  </si>
+  <si>
     <t>LÊ THỊ THOA</t>
   </si>
   <si>
+    <t>TRẦN NGỌC SƠN</t>
+  </si>
+  <si>
     <t>NGUYỄN HỒ NAM</t>
   </si>
   <si>
@@ -318,6 +492,9 @@
     <t>LÊ CÔNG TOẠI</t>
   </si>
   <si>
+    <t>TRẦN THANH LONG</t>
+  </si>
+  <si>
     <t>ĐINH THỊ MỸ DUNG</t>
   </si>
   <si>
@@ -327,12 +504,42 @@
     <t>PHẠM QUANG KHẢI</t>
   </si>
   <si>
+    <t>VŨ NGỌC CHIẾN</t>
+  </si>
+  <si>
     <t>LÊ NGUYỄN NHẤT CHÍNH</t>
   </si>
   <si>
+    <t>CAO LÊ NHÃ THANH</t>
+  </si>
+  <si>
+    <t>TRẦN MINH TẤN</t>
+  </si>
+  <si>
+    <t>LÊ PHÚ KHUYÊN</t>
+  </si>
+  <si>
+    <t>VƯƠNG THỊ HẢI YẾN</t>
+  </si>
+  <si>
     <t>DƯƠNG THÚY LAN</t>
   </si>
   <si>
+    <t>ĐOÀN XUÂN DƯƠNG</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐÌNH TÂN</t>
+  </si>
+  <si>
+    <t>NGUYỄN ANH NGHĨA</t>
+  </si>
+  <si>
+    <t>CAO TRƯƠNG THANH THANH</t>
+  </si>
+  <si>
+    <t>NGÔ THỊ BẢO</t>
+  </si>
+  <si>
     <t>PHƯƠNG ĐÌNH THANH</t>
   </si>
   <si>
@@ -342,27 +549,63 @@
     <t>NGUYỄN BÁ THIẾT</t>
   </si>
   <si>
+    <t>NGUYỄN KIÊN CƯỜNG</t>
+  </si>
+  <si>
     <t>TRẦN VĂN HÀ</t>
   </si>
   <si>
+    <t>Nguyễn Duy Anh</t>
+  </si>
+  <si>
     <t>PHẠM VĂN HAI</t>
   </si>
   <si>
+    <t>NGUYỄN VIỆT HÀ</t>
+  </si>
+  <si>
     <t>TRẦN MỸ HẠNH</t>
   </si>
   <si>
+    <t>VÕ XUÂN HUÂN</t>
+  </si>
+  <si>
+    <t>TRẦN QUANG HÙNG</t>
+  </si>
+  <si>
+    <t>VÕ MINH HOÀNG</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thùy Ngân</t>
+  </si>
+  <si>
     <t>LÊ MINH KHUÊ</t>
   </si>
   <si>
+    <t>VŨ XUÂN DƯƠNG</t>
+  </si>
+  <si>
+    <t>HUỲNH THỊ TÚ DUYÊN</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Anh</t>
+  </si>
+  <si>
     <t>TRƯƠNG BỈNH THẮNG</t>
   </si>
   <si>
+    <t>TRẦN SƠN PHÚ</t>
+  </si>
+  <si>
     <t>NGUYỄN THÚY NGA</t>
   </si>
   <si>
     <t>NGUYỄN XUÂN CỬ</t>
   </si>
   <si>
+    <t>NGUYỄN TRỌNG KHÁNH</t>
+  </si>
+  <si>
     <t>NGUYỄN MẠNH AN</t>
   </si>
   <si>
@@ -381,27 +624,57 @@
     <t>ĐẶNG VŨ TRÍ DŨNG</t>
   </si>
   <si>
+    <t>DƯƠNG VƯƠNG TUYẾT HẠNH</t>
+  </si>
+  <si>
     <t>NGUYỄN NGỌC HUY</t>
   </si>
   <si>
+    <t>NGUYỄN HOÀNG HÀ</t>
+  </si>
+  <si>
+    <t>VŨ BẢO QUỐC</t>
+  </si>
+  <si>
     <t>ĐÀO THIÊN PHƯƠNG</t>
   </si>
   <si>
+    <t>ĐÀO MẠNH CƯỜNG</t>
+  </si>
+  <si>
     <t>PHAN QUỐC TOÀN</t>
   </si>
   <si>
+    <t>TRẦN THỊ THANH HOÀI</t>
+  </si>
+  <si>
     <t>BÙI HUY THÀNH</t>
   </si>
   <si>
     <t>NGUYỄN TIẾN MẠNH</t>
   </si>
   <si>
+    <t>NGUYỄN THÀNH NAM</t>
+  </si>
+  <si>
     <t>CÔNG TY TNHH MỘT THÀNH VIÊN ĐẦU TƯ TỔNG HỢP LÊ GIA</t>
   </si>
   <si>
+    <t>LÊ THỊ VIỆT TRIỀU</t>
+  </si>
+  <si>
+    <t>ĐỖ QUỐC TRÍ</t>
+  </si>
+  <si>
     <t>NGUYỄN THỊ MINH HIẾU</t>
   </si>
   <si>
+    <t>PHAN CHÍ VĨ</t>
+  </si>
+  <si>
+    <t>NGÔ HỒNG SƠN</t>
+  </si>
+  <si>
     <t>LÊ THỊ BÍCH ĐÀO</t>
   </si>
   <si>
@@ -420,18 +693,39 @@
     <t>NGUYỄN THỊ SINH</t>
   </si>
   <si>
+    <t>NGUYỄN THỊ DƯƠNG</t>
+  </si>
+  <si>
+    <t>NGUYỄN TẤN NHỰT</t>
+  </si>
+  <si>
     <t>TRẦN ĐỨC CƯƠNG</t>
   </si>
   <si>
+    <t>ĐỖ QUỐC BANG</t>
+  </si>
+  <si>
+    <t>TÔ PHÚC THỊNH</t>
+  </si>
+  <si>
     <t>VÕ ĐỨC THƯỜNG</t>
   </si>
   <si>
+    <t>HOÀNG THẾ THIỆU</t>
+  </si>
+  <si>
+    <t>ĐỖ VĂN THIỆN</t>
+  </si>
+  <si>
     <t>NGUYỄN TIẾN BÁCH</t>
   </si>
   <si>
     <t>TRẦN THỊ HẢI YẾN</t>
   </si>
   <si>
+    <t>DƯƠNG THỊ THU</t>
+  </si>
+  <si>
     <t>TRẦN THỊ THU NGUYỆT</t>
   </si>
   <si>
@@ -447,27 +741,57 @@
     <t>NGUYỄN HỮU NHẬT</t>
   </si>
   <si>
+    <t>NGUYỄN VĂN QUANG</t>
+  </si>
+  <si>
     <t>LÊ THỊ THU THỦY</t>
   </si>
   <si>
     <t>DƯƠNG ĐÌNH SƠN</t>
   </si>
   <si>
+    <t>ĐÀO VĨNH PHÚ</t>
+  </si>
+  <si>
+    <t>HUỲNH THỊ VƯƠNG PHI</t>
+  </si>
+  <si>
     <t>NGUYỄN THẾ TÀI</t>
   </si>
   <si>
     <t>BÙI THY HƯƠNG</t>
   </si>
   <si>
+    <t>TRỊNH THỊ MAI TRÂM</t>
+  </si>
+  <si>
+    <t>PHẠM HUY DŨNG</t>
+  </si>
+  <si>
+    <t>TRỊNH TUẤN KIÊN</t>
+  </si>
+  <si>
     <t>VŨ MINH PHƯƠNG</t>
   </si>
   <si>
+    <t>VÕ HOÀNG PHƯƠNG LOAN</t>
+  </si>
+  <si>
     <t>NGUYỄN ĐỨC THỌ</t>
   </si>
   <si>
+    <t>NGUYỄN TRẦN NGỌC THỦY</t>
+  </si>
+  <si>
+    <t>NGUYỄN NGỌC TUYỀN</t>
+  </si>
+  <si>
     <t>ĐỖ VĂN MẠNH</t>
   </si>
   <si>
+    <t>LÊ THỊ THUÝ</t>
+  </si>
+  <si>
     <t>NGUYỄN MỸ DUNG</t>
   </si>
   <si>
@@ -477,9 +801,21 @@
     <t>NGUYỄN ĐÌNH THÀNH</t>
   </si>
   <si>
+    <t>PHẠM QUANG MINH</t>
+  </si>
+  <si>
+    <t>NGUYỄN THÁI HÀ</t>
+  </si>
+  <si>
     <t>Võ Hoàng Chương</t>
   </si>
   <si>
+    <t>TRẦN VƯƠNG TRUNG</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ HẢO</t>
+  </si>
+  <si>
     <t>Phạm Văn Duy</t>
   </si>
   <si>
@@ -489,6 +825,9 @@
     <t>Chi nhánh Quận 1</t>
   </si>
   <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
     <t>Quận 3</t>
   </si>
   <si>
@@ -504,28 +843,28 @@
     <t>Tân Bình</t>
   </si>
   <si>
-    <t>Hải Phòng</t>
-  </si>
-  <si>
     <t>Hà Nội</t>
   </si>
   <si>
     <t>VIP Branch</t>
   </si>
   <si>
+    <t>Promote Silv PHS</t>
+  </si>
+  <si>
     <t>Demote DP</t>
   </si>
   <si>
-    <t>Promote Silv PHS</t>
-  </si>
-  <si>
     <t>Promote Gold PHS</t>
   </si>
   <si>
     <t>NGUYỄN TRÀ MY</t>
   </si>
   <si>
-    <t>HOÀNG THẾ THIỆU</t>
+    <t>HOÀNG ĐÌNH ĐỨC</t>
+  </si>
+  <si>
+    <t>TRƯƠNG THỊ YẾN</t>
   </si>
   <si>
     <t>TRẦN NGỌC LÃM</t>
@@ -534,15 +873,39 @@
     <t>ĐOÀN THỊ MINH PHƯƠNG</t>
   </si>
   <si>
+    <t>ĐÀO NGỌC ANH</t>
+  </si>
+  <si>
     <t>VÕ THỊ THẢO</t>
   </si>
   <si>
+    <t>TRƯƠNG TRỌNG NHÂN</t>
+  </si>
+  <si>
     <t>TRẦN THỊ CẨM VÂN</t>
   </si>
   <si>
+    <t>PHẠM HUY TRÍ</t>
+  </si>
+  <si>
     <t>NGUYỄN VIẾT VINH</t>
   </si>
   <si>
+    <t>ĐAN HỒNG DƯƠNG</t>
+  </si>
+  <si>
+    <t>LÊ VĂN CẬP</t>
+  </si>
+  <si>
+    <t>DƯƠNG THỊ THANH LÝ</t>
+  </si>
+  <si>
+    <t>PHẠM CHÍ TÂM</t>
+  </si>
+  <si>
+    <t>PHAN THỊ HUẾ</t>
+  </si>
+  <si>
     <t>NGUYỄN NGỌC TOÀN</t>
   </si>
   <si>
@@ -552,19 +915,37 @@
     <t>ĐINH KHẮC VIỆT</t>
   </si>
   <si>
-    <t>LÊ VĂN CẬP</t>
-  </si>
-  <si>
     <t>NGUYỄN QUANG HUY</t>
   </si>
   <si>
+    <t>TRẦN XUÂN TRĂM</t>
+  </si>
+  <si>
     <t>PHAN HOÀNG PHƯƠNG LINH</t>
   </si>
   <si>
+    <t>NGUYỄN THỊ THANH THẢO</t>
+  </si>
+  <si>
+    <t>BÙI THỊ THU PHƯƠNG</t>
+  </si>
+  <si>
     <t>LƯU ANH TUẤN</t>
   </si>
   <si>
-    <t>TRẦN XUÂN TRĂM</t>
+    <t>TRẦN CÔNG TIẾN</t>
+  </si>
+  <si>
+    <t>NGUYỄN NGỌC LAN ANH</t>
+  </si>
+  <si>
+    <t>HUỲNH HUỆ PHƯƠNG</t>
+  </si>
+  <si>
+    <t>NGUYỄN NGỌC TIÊN</t>
+  </si>
+  <si>
+    <t>ĐẶNG THỊ LƯỢC</t>
   </si>
   <si>
     <t>NGUYỄN TRẦN PHƯƠNG UYÊN</t>
@@ -573,16 +954,28 @@
     <t>HUỲNH NHƯ QUỲNH</t>
   </si>
   <si>
+    <t>NGUYỄN MINH TRÍ</t>
+  </si>
+  <si>
     <t>NGUYỄN QUANG SẮC</t>
   </si>
   <si>
     <t>PHAN KIẾT TƯỜNG</t>
   </si>
   <si>
+    <t>ĐỖ THỊ THANH NGÂN</t>
+  </si>
+  <si>
     <t>CHÂU MINH SANG</t>
   </si>
   <si>
-    <t>NGUYỄN MINH TRÍ</t>
+    <t>NGUYỄN QUỐC THÁI</t>
+  </si>
+  <si>
+    <t>TRẦN NGUYỄN TRƯỜNG SƠN</t>
+  </si>
+  <si>
+    <t>Phan Chí Vĩ</t>
   </si>
   <si>
     <t>ĐỖ THỊ HẠNH</t>
@@ -591,7 +984,7 @@
     <t>NGUYỄN TẤN KHOA</t>
   </si>
   <si>
-    <t>ĐÀO VĨNH PHÚ</t>
+    <t>NGUYỄN HOÀNG HIỆP</t>
   </si>
   <si>
     <t>LẠI PHƯỚC THUẬN</t>
@@ -603,34 +996,31 @@
     <t>VŨ TRỌNG HÙNG</t>
   </si>
   <si>
-    <t>PHẠM HUY TRÍ</t>
-  </si>
-  <si>
-    <t>DƯƠNG THỊ THANH LÝ</t>
-  </si>
-  <si>
     <t>TRẦN THỊ NGA</t>
   </si>
   <si>
     <t>LƯỜNG NGỌC NGHĨA</t>
   </si>
   <si>
+    <t>NGUYỄN VIỆT SƠN</t>
+  </si>
+  <si>
     <t>NGUYỄN TUẤN TÚ</t>
   </si>
   <si>
     <t>TRẦN VĂN TUẤN HÙNG</t>
   </si>
   <si>
-    <t>ĐÀO NGỌC ANH</t>
-  </si>
-  <si>
     <t>VŨ ĐÌNH BẰNG</t>
   </si>
   <si>
+    <t>LÊ THỊ PHƯƠNG UYÊN</t>
+  </si>
+  <si>
     <t>MAI THỊ TUYẾT</t>
   </si>
   <si>
-    <t>BÙI THỊ THU PHƯƠNG</t>
+    <t>NGUYỄN KHẮC TRƯỜNG</t>
   </si>
   <si>
     <t>Effective: Promoted accounts be applied from ......./......./2021 &amp; another accounts be applied from ........../........../2021</t>
@@ -1190,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R85"/>
+  <dimension ref="A2:R141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1347,10 +1737,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="E7" s="11">
         <v>44229</v>
@@ -1359,19 +1749,19 @@
         <v>40000000</v>
       </c>
       <c r="G7" s="13">
-        <v>13783727.76666667</v>
+        <v>22553507.36666666</v>
       </c>
       <c r="H7" s="14">
-        <v>34.45931941666666</v>
+        <v>56.38376841666665</v>
       </c>
       <c r="I7" s="13">
-        <v>1646110103.2625</v>
+        <v>2039805260.32</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="L7" s="16">
         <v>12.5</v>
@@ -1381,7 +1771,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="R7" s="9"/>
     </row>
@@ -1393,10 +1783,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="E8" s="11">
         <v>44140</v>
@@ -1405,19 +1795,19 @@
         <v>40000000</v>
       </c>
       <c r="G8" s="13">
-        <v>3642962.466666667</v>
+        <v>6123591.166666667</v>
       </c>
       <c r="H8" s="14">
-        <v>9.107406166666667</v>
+        <v>15.30897791666667</v>
       </c>
       <c r="I8" s="13">
-        <v>7411250620.15625</v>
+        <v>4959022598.40923</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L8" s="16">
         <v>12.5</v>
@@ -1427,7 +1817,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="R8" s="9"/>
     </row>
@@ -1439,31 +1829,31 @@
         <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="E9" s="11">
-        <v>44140</v>
+        <v>44508</v>
       </c>
       <c r="F9" s="12">
         <v>40000000</v>
       </c>
       <c r="G9" s="13">
-        <v>12752046.6</v>
+        <v>14234076.55</v>
       </c>
       <c r="H9" s="14">
-        <v>31.8801165</v>
+        <v>35.58519137499999</v>
       </c>
       <c r="I9" s="13">
-        <v>2916562481.352187</v>
+        <v>1211158105.406461</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L9" s="16">
         <v>12.5</v>
@@ -1473,7 +1863,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="R9" s="9"/>
     </row>
@@ -1485,31 +1875,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="E10" s="11">
-        <v>44323</v>
+        <v>44140</v>
       </c>
       <c r="F10" s="12">
         <v>40000000</v>
       </c>
       <c r="G10" s="13">
-        <v>4987.5</v>
+        <v>12357133.6</v>
       </c>
       <c r="H10" s="14">
-        <v>0.01246875</v>
+        <v>30.892834</v>
       </c>
       <c r="I10" s="13">
-        <v>24188933524.58906</v>
+        <v>3026826334.570461</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L10" s="16">
         <v>12.5</v>
@@ -1519,7 +1909,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="R10" s="9"/>
     </row>
@@ -1531,31 +1921,31 @@
         <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="E11" s="11">
-        <v>44095</v>
+        <v>44439</v>
       </c>
       <c r="F11" s="12">
         <v>40000000</v>
       </c>
       <c r="G11" s="13">
-        <v>9309311.533333333</v>
+        <v>11913168.2</v>
       </c>
       <c r="H11" s="14">
-        <v>23.27327883333333</v>
+        <v>29.7829205</v>
       </c>
       <c r="I11" s="13">
-        <v>4830892881.295</v>
+        <v>343440376.38923</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L11" s="16">
         <v>12.5</v>
@@ -1565,7 +1955,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="R11" s="9"/>
     </row>
@@ -1577,31 +1967,31 @@
         <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="E12" s="11">
-        <v>44410</v>
+        <v>44323</v>
       </c>
       <c r="F12" s="12">
         <v>40000000</v>
       </c>
       <c r="G12" s="13">
-        <v>21121810.1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
-        <v>52.80452524999999</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>2498489777.845312</v>
+        <v>137759.861538</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="L12" s="16">
         <v>12.5</v>
@@ -1611,7 +2001,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="R12" s="9"/>
     </row>
@@ -1623,31 +2013,31 @@
         <v>31</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="E13" s="11">
-        <v>44145</v>
+        <v>44095</v>
       </c>
       <c r="F13" s="12">
         <v>40000000</v>
       </c>
       <c r="G13" s="13">
-        <v>9659102.233333332</v>
+        <v>15626722.26666667</v>
       </c>
       <c r="H13" s="14">
-        <v>24.14775558333333</v>
+        <v>39.06680566666667</v>
       </c>
       <c r="I13" s="13">
-        <v>4132701901.90375</v>
+        <v>13702517768.13169</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L13" s="16">
         <v>12.5</v>
@@ -1657,7 +2047,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="R13" s="9"/>
     </row>
@@ -1669,31 +2059,31 @@
         <v>32</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="E14" s="11">
-        <v>44095</v>
+        <v>44410</v>
       </c>
       <c r="F14" s="12">
         <v>40000000</v>
       </c>
       <c r="G14" s="13">
-        <v>5247450.399999999</v>
+        <v>13936337.03333333</v>
       </c>
       <c r="H14" s="14">
-        <v>13.118626</v>
+        <v>34.84084258333333</v>
       </c>
       <c r="I14" s="13">
-        <v>4487688426.785156</v>
+        <v>2768023778.910769</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L14" s="16">
         <v>12.5</v>
@@ -1703,7 +2093,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="R14" s="9"/>
     </row>
@@ -1715,31 +2105,31 @@
         <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="E15" s="11">
-        <v>44333</v>
+        <v>44145</v>
       </c>
       <c r="F15" s="12">
         <v>40000000</v>
       </c>
       <c r="G15" s="13">
-        <v>0</v>
+        <v>6773946.866666667</v>
       </c>
       <c r="H15" s="14">
-        <v>0</v>
+        <v>16.93486716666667</v>
       </c>
       <c r="I15" s="13">
-        <v>4079824959.74</v>
+        <v>2786064783.630923</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L15" s="16">
         <v>12.5</v>
@@ -1749,7 +2139,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="R15" s="9"/>
     </row>
@@ -1761,31 +2151,31 @@
         <v>34</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="E16" s="11">
-        <v>44333</v>
+        <v>44515</v>
       </c>
       <c r="F16" s="12">
         <v>40000000</v>
       </c>
       <c r="G16" s="13">
-        <v>2727025.233333333</v>
+        <v>1758080.8</v>
       </c>
       <c r="H16" s="14">
-        <v>6.817563083333333</v>
+        <v>4.395202</v>
       </c>
       <c r="I16" s="13">
-        <v>6414739269.412343</v>
+        <v>1323659200.54523</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L16" s="16">
         <v>12.5</v>
@@ -1795,7 +2185,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="R16" s="9"/>
     </row>
@@ -1807,31 +2197,31 @@
         <v>35</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="E17" s="11">
-        <v>44377</v>
+        <v>44095</v>
       </c>
       <c r="F17" s="12">
         <v>40000000</v>
       </c>
       <c r="G17" s="13">
-        <v>7551904.733333333</v>
+        <v>6018816.2</v>
       </c>
       <c r="H17" s="14">
-        <v>18.87976183333333</v>
+        <v>15.0470405</v>
       </c>
       <c r="I17" s="13">
-        <v>2681058277.15625</v>
+        <v>6231521135.846923</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L17" s="16">
         <v>12.5</v>
@@ -1841,7 +2231,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="R17" s="9"/>
     </row>
@@ -1853,31 +2243,31 @@
         <v>36</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="E18" s="11">
-        <v>44377</v>
+        <v>44333</v>
       </c>
       <c r="F18" s="12">
         <v>40000000</v>
       </c>
       <c r="G18" s="13">
-        <v>11941130</v>
+        <v>0</v>
       </c>
       <c r="H18" s="14">
-        <v>29.852825</v>
+        <v>0</v>
       </c>
       <c r="I18" s="13">
-        <v>1849068160.057968</v>
+        <v>4388136799.238769</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L18" s="16">
         <v>12.5</v>
@@ -1887,7 +2277,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="R18" s="9"/>
     </row>
@@ -1899,31 +2289,31 @@
         <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="E19" s="11">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="F19" s="12">
         <v>40000000</v>
       </c>
       <c r="G19" s="13">
-        <v>6555366.55</v>
+        <v>6558727.399999999</v>
       </c>
       <c r="H19" s="14">
-        <v>16.388416375</v>
+        <v>16.3968185</v>
       </c>
       <c r="I19" s="13">
-        <v>373090225.704687</v>
+        <v>6748823212.07723</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L19" s="16">
         <v>12.5</v>
@@ -1933,7 +2323,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="R19" s="9"/>
     </row>
@@ -1945,31 +2335,31 @@
         <v>38</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="E20" s="11">
-        <v>44095</v>
+        <v>44483</v>
       </c>
       <c r="F20" s="12">
         <v>40000000</v>
       </c>
       <c r="G20" s="13">
-        <v>192962</v>
+        <v>17403188.83333333</v>
       </c>
       <c r="H20" s="14">
-        <v>0.482405</v>
+        <v>43.50797208333333</v>
       </c>
       <c r="I20" s="13">
-        <v>3563411660.465625</v>
+        <v>596101308.603384</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L20" s="16">
         <v>12.5</v>
@@ -1979,7 +2369,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="R20" s="9"/>
     </row>
@@ -1991,31 +2381,31 @@
         <v>39</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="E21" s="11">
-        <v>44333</v>
+        <v>44377</v>
       </c>
       <c r="F21" s="12">
         <v>40000000</v>
       </c>
       <c r="G21" s="13">
-        <v>4101407.7</v>
+        <v>10409145.26666667</v>
       </c>
       <c r="H21" s="14">
-        <v>10.25351925</v>
+        <v>26.02286316666667</v>
       </c>
       <c r="I21" s="13">
-        <v>3537716339.2125</v>
+        <v>3150983873.772307</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L21" s="16">
         <v>12.5</v>
@@ -2025,7 +2415,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9" t="s">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="R21" s="9"/>
     </row>
@@ -2037,31 +2427,31 @@
         <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="E22" s="11">
-        <v>44095</v>
+        <v>44473</v>
       </c>
       <c r="F22" s="12">
         <v>40000000</v>
       </c>
       <c r="G22" s="13">
-        <v>13385260.56666667</v>
+        <v>3831447.7</v>
       </c>
       <c r="H22" s="14">
-        <v>33.46315141666667</v>
+        <v>9.578619249999999</v>
       </c>
       <c r="I22" s="13">
-        <v>10112848002.3625</v>
+        <v>425183595.723076</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L22" s="16">
         <v>12.5</v>
@@ -2071,7 +2461,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="R22" s="9"/>
     </row>
@@ -2083,31 +2473,31 @@
         <v>41</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="E23" s="11">
-        <v>44432</v>
+        <v>44509</v>
       </c>
       <c r="F23" s="12">
         <v>40000000</v>
       </c>
       <c r="G23" s="13">
-        <v>24653339.2</v>
+        <v>41252192.3</v>
       </c>
       <c r="H23" s="14">
-        <v>61.633348</v>
+        <v>103.13048075</v>
       </c>
       <c r="I23" s="13">
-        <v>1380359884.431406</v>
+        <v>2535176968.28</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="L23" s="16">
         <v>12.5</v>
@@ -2117,7 +2507,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="R23" s="9"/>
     </row>
@@ -2129,31 +2519,31 @@
         <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="E24" s="11">
-        <v>44369</v>
+        <v>44440</v>
       </c>
       <c r="F24" s="12">
         <v>40000000</v>
       </c>
       <c r="G24" s="13">
-        <v>10093403.16666667</v>
+        <v>11870063.26666667</v>
       </c>
       <c r="H24" s="14">
-        <v>25.23350791666666</v>
+        <v>29.67515816666667</v>
       </c>
       <c r="I24" s="13">
-        <v>3468138922.597656</v>
+        <v>1044803210.180615</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L24" s="16">
         <v>12.5</v>
@@ -2163,7 +2553,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="R24" s="9"/>
     </row>
@@ -2175,31 +2565,31 @@
         <v>43</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="E25" s="11">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="F25" s="12">
         <v>40000000</v>
       </c>
       <c r="G25" s="13">
-        <v>581764.5</v>
+        <v>9337835.133333333</v>
       </c>
       <c r="H25" s="14">
-        <v>1.45441125</v>
+        <v>23.34458783333333</v>
       </c>
       <c r="I25" s="13">
-        <v>768048878.304687</v>
+        <v>1416679688.852307</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L25" s="16">
         <v>12.5</v>
@@ -2209,7 +2599,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="R25" s="9"/>
     </row>
@@ -2221,31 +2611,31 @@
         <v>44</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="E26" s="11">
-        <v>44418</v>
+        <v>44377</v>
       </c>
       <c r="F26" s="12">
         <v>40000000</v>
       </c>
       <c r="G26" s="13">
-        <v>18781185.5</v>
+        <v>20872359.7</v>
       </c>
       <c r="H26" s="14">
-        <v>46.95296375</v>
+        <v>52.18089925</v>
       </c>
       <c r="I26" s="13">
-        <v>1883183369.319843</v>
+        <v>2516828250.594</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="L26" s="16">
         <v>12.5</v>
@@ -2255,7 +2645,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="R26" s="9"/>
     </row>
@@ -2267,31 +2657,31 @@
         <v>45</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="E27" s="11">
-        <v>44434</v>
+        <v>44460</v>
       </c>
       <c r="F27" s="12">
         <v>40000000</v>
       </c>
       <c r="G27" s="13">
-        <v>8346564.2</v>
+        <v>10250916</v>
       </c>
       <c r="H27" s="14">
-        <v>20.8664105</v>
+        <v>25.62729</v>
       </c>
       <c r="I27" s="13">
-        <v>338150016.585937</v>
+        <v>3148996866.292307</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L27" s="16">
         <v>12.5</v>
@@ -2301,7 +2691,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="R27" s="9"/>
     </row>
@@ -2313,31 +2703,31 @@
         <v>46</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="E28" s="11">
-        <v>44340</v>
+        <v>44529</v>
       </c>
       <c r="F28" s="12">
         <v>40000000</v>
       </c>
       <c r="G28" s="13">
-        <v>4807983.266666667</v>
+        <v>19272959.2</v>
       </c>
       <c r="H28" s="14">
-        <v>12.01995816666667</v>
+        <v>48.182398</v>
       </c>
       <c r="I28" s="13">
-        <v>3844551272.395312</v>
+        <v>1354200523.321538</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L28" s="16">
         <v>12.5</v>
@@ -2347,7 +2737,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="R28" s="9"/>
     </row>
@@ -2359,31 +2749,31 @@
         <v>47</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="E29" s="11">
-        <v>44288</v>
+        <v>44459</v>
       </c>
       <c r="F29" s="12">
         <v>40000000</v>
       </c>
       <c r="G29" s="13">
-        <v>6841981.433333334</v>
+        <v>593119.8666666667</v>
       </c>
       <c r="H29" s="14">
-        <v>17.10495358333333</v>
+        <v>1.482799666666667</v>
       </c>
       <c r="I29" s="13">
-        <v>2014107572.546718</v>
+        <v>300330597.4</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L29" s="16">
         <v>12.5</v>
@@ -2393,7 +2783,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="R29" s="9"/>
     </row>
@@ -2405,31 +2795,31 @@
         <v>48</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="E30" s="11">
-        <v>44201</v>
+        <v>44525</v>
       </c>
       <c r="F30" s="12">
         <v>40000000</v>
       </c>
       <c r="G30" s="13">
-        <v>11726022.16666667</v>
+        <v>24479284.6</v>
       </c>
       <c r="H30" s="14">
-        <v>29.31505541666666</v>
+        <v>61.1982115</v>
       </c>
       <c r="I30" s="13">
-        <v>3637904900.00625</v>
+        <v>642664883.327692</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="L30" s="16">
         <v>12.5</v>
@@ -2439,7 +2829,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9" t="s">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="R30" s="9"/>
     </row>
@@ -2451,31 +2841,31 @@
         <v>49</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="E31" s="11">
-        <v>44333</v>
+        <v>44523</v>
       </c>
       <c r="F31" s="12">
         <v>40000000</v>
       </c>
       <c r="G31" s="13">
-        <v>3745218.8</v>
+        <v>7775605.8</v>
       </c>
       <c r="H31" s="14">
-        <v>9.363047</v>
+        <v>19.4390145</v>
       </c>
       <c r="I31" s="13">
-        <v>4793695015.21875</v>
+        <v>205928912.138461</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L31" s="16">
         <v>12.5</v>
@@ -2485,7 +2875,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="R31" s="9"/>
     </row>
@@ -2497,31 +2887,31 @@
         <v>50</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="E32" s="11">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="F32" s="12">
         <v>40000000</v>
       </c>
       <c r="G32" s="13">
-        <v>0</v>
+        <v>7974701.5</v>
       </c>
       <c r="H32" s="14">
-        <v>0</v>
+        <v>19.93675375</v>
       </c>
       <c r="I32" s="13">
-        <v>34040632290.83015</v>
+        <v>1936865901.012307</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L32" s="16">
         <v>12.5</v>
@@ -2531,7 +2921,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9" t="s">
-        <v>163</v>
+        <v>290</v>
       </c>
       <c r="R32" s="9"/>
     </row>
@@ -2543,31 +2933,31 @@
         <v>51</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="E33" s="11">
-        <v>44372</v>
+        <v>44095</v>
       </c>
       <c r="F33" s="12">
         <v>40000000</v>
       </c>
       <c r="G33" s="13">
-        <v>6705802.266666667</v>
+        <v>2283427.633333333</v>
       </c>
       <c r="H33" s="14">
-        <v>16.76450566666666</v>
+        <v>5.708569083333334</v>
       </c>
       <c r="I33" s="13">
-        <v>1943306630.427812</v>
+        <v>3676302309.390769</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L33" s="16">
         <v>12.5</v>
@@ -2577,7 +2967,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="R33" s="9"/>
     </row>
@@ -2589,31 +2979,31 @@
         <v>52</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="E34" s="11">
-        <v>44305</v>
+        <v>44333</v>
       </c>
       <c r="F34" s="12">
         <v>40000000</v>
       </c>
       <c r="G34" s="13">
-        <v>9183405.299999999</v>
+        <v>4048154.466666667</v>
       </c>
       <c r="H34" s="14">
-        <v>22.95851325</v>
+        <v>10.12038616666667</v>
       </c>
       <c r="I34" s="13">
-        <v>2647797185.396562</v>
+        <v>4917129950.503076</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L34" s="16">
         <v>12.5</v>
@@ -2623,7 +3013,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9" t="s">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="R34" s="9"/>
     </row>
@@ -2635,31 +3025,31 @@
         <v>53</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="E35" s="11">
-        <v>44337</v>
+        <v>44489</v>
       </c>
       <c r="F35" s="12">
         <v>40000000</v>
       </c>
       <c r="G35" s="13">
-        <v>16844272.6</v>
+        <v>4922754.45</v>
       </c>
       <c r="H35" s="14">
-        <v>42.1106815</v>
+        <v>12.306886125</v>
       </c>
       <c r="I35" s="13">
-        <v>3322935916.539062</v>
+        <v>347573699.179538</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L35" s="16">
         <v>12.5</v>
@@ -2669,7 +3059,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9" t="s">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="R35" s="9"/>
     </row>
@@ -2681,31 +3071,31 @@
         <v>54</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="E36" s="11">
-        <v>44438</v>
+        <v>44095</v>
       </c>
       <c r="F36" s="12">
         <v>40000000</v>
       </c>
       <c r="G36" s="13">
-        <v>1694868.3</v>
+        <v>24144576.83333333</v>
       </c>
       <c r="H36" s="14">
-        <v>4.23717075</v>
+        <v>60.36144208333333</v>
       </c>
       <c r="I36" s="13">
-        <v>154335869.336562</v>
+        <v>12606057554.27354</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="L36" s="16">
         <v>12.5</v>
@@ -2715,7 +3105,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="R36" s="9"/>
     </row>
@@ -2727,31 +3117,31 @@
         <v>55</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="E37" s="11">
-        <v>44383</v>
+        <v>44522</v>
       </c>
       <c r="F37" s="12">
         <v>40000000</v>
       </c>
       <c r="G37" s="13">
-        <v>8782562.933333334</v>
+        <v>40901607.7</v>
       </c>
       <c r="H37" s="14">
-        <v>21.95640733333333</v>
+        <v>102.25401925</v>
       </c>
       <c r="I37" s="13">
-        <v>1881519438.912187</v>
+        <v>995364918.052307</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="L37" s="16">
         <v>12.5</v>
@@ -2761,7 +3151,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="R37" s="9"/>
     </row>
@@ -2773,31 +3163,31 @@
         <v>56</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="E38" s="11">
-        <v>44140</v>
+        <v>44432</v>
       </c>
       <c r="F38" s="12">
         <v>40000000</v>
       </c>
       <c r="G38" s="13">
-        <v>11808106.2</v>
+        <v>12792822.6</v>
       </c>
       <c r="H38" s="14">
-        <v>29.5202655</v>
+        <v>31.9820565</v>
       </c>
       <c r="I38" s="13">
-        <v>2790797981.105625</v>
+        <v>3151574774.546153</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L38" s="16">
         <v>12.5</v>
@@ -2807,7 +3197,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="R38" s="9"/>
     </row>
@@ -2819,31 +3209,31 @@
         <v>57</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="E39" s="11">
-        <v>44322</v>
+        <v>44519</v>
       </c>
       <c r="F39" s="12">
         <v>40000000</v>
       </c>
       <c r="G39" s="13">
-        <v>2843067.4</v>
+        <v>1749314.4</v>
       </c>
       <c r="H39" s="14">
-        <v>7.1076685</v>
+        <v>4.373286</v>
       </c>
       <c r="I39" s="13">
-        <v>1737433906.63125</v>
+        <v>153111798.803076</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L39" s="16">
         <v>12.5</v>
@@ -2853,7 +3243,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="R39" s="9"/>
     </row>
@@ -2865,31 +3255,31 @@
         <v>58</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="E40" s="11">
-        <v>44410</v>
+        <v>44369</v>
       </c>
       <c r="F40" s="12">
         <v>40000000</v>
       </c>
       <c r="G40" s="13">
-        <v>0</v>
+        <v>18630918.2</v>
       </c>
       <c r="H40" s="14">
-        <v>0</v>
+        <v>46.5772955</v>
       </c>
       <c r="I40" s="13">
-        <v>4085837898.360781</v>
+        <v>4582734672.746153</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L40" s="16">
         <v>12.5</v>
@@ -2899,7 +3289,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9" t="s">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="R40" s="9"/>
     </row>
@@ -2911,31 +3301,31 @@
         <v>59</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="E41" s="11">
-        <v>44095</v>
+        <v>44459</v>
       </c>
       <c r="F41" s="12">
         <v>40000000</v>
       </c>
       <c r="G41" s="13">
-        <v>0</v>
+        <v>3534472.633333333</v>
       </c>
       <c r="H41" s="14">
-        <v>0</v>
+        <v>8.836181583333333</v>
       </c>
       <c r="I41" s="13">
-        <v>10837091506.375</v>
+        <v>1212774563.846153</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L41" s="16">
         <v>12.5</v>
@@ -2945,7 +3335,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9" t="s">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="R41" s="9"/>
     </row>
@@ -2957,31 +3347,31 @@
         <v>60</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="E42" s="11">
-        <v>44249</v>
+        <v>44526</v>
       </c>
       <c r="F42" s="12">
         <v>40000000</v>
       </c>
       <c r="G42" s="13">
-        <v>11362976.33333333</v>
+        <v>7637957.6</v>
       </c>
       <c r="H42" s="14">
-        <v>28.40744083333334</v>
+        <v>19.094894</v>
       </c>
       <c r="I42" s="13">
-        <v>2052692444.564062</v>
+        <v>486358322.130769</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L42" s="16">
         <v>12.5</v>
@@ -2991,7 +3381,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="R42" s="9"/>
     </row>
@@ -3003,31 +3393,31 @@
         <v>61</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="E43" s="11">
-        <v>44336</v>
+        <v>44455</v>
       </c>
       <c r="F43" s="12">
         <v>40000000</v>
       </c>
       <c r="G43" s="13">
-        <v>5990179</v>
+        <v>1649201.866666666</v>
       </c>
       <c r="H43" s="14">
-        <v>14.9754475</v>
+        <v>4.123004666666666</v>
       </c>
       <c r="I43" s="13">
-        <v>3961628680.560156</v>
+        <v>607345240.082769</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L43" s="16">
         <v>12.5</v>
@@ -3037,7 +3427,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="R43" s="9"/>
     </row>
@@ -3049,31 +3439,31 @@
         <v>62</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="E44" s="11">
-        <v>44095</v>
+        <v>44515</v>
       </c>
       <c r="F44" s="12">
         <v>40000000</v>
       </c>
       <c r="G44" s="13">
-        <v>0</v>
+        <v>5122099.6</v>
       </c>
       <c r="H44" s="14">
-        <v>0</v>
+        <v>12.805249</v>
       </c>
       <c r="I44" s="13">
-        <v>5467044534.40625</v>
+        <v>496916539.530769</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L44" s="16">
         <v>12.5</v>
@@ -3083,7 +3473,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9" t="s">
-        <v>170</v>
+        <v>297</v>
       </c>
       <c r="R44" s="9"/>
     </row>
@@ -3095,31 +3485,31 @@
         <v>63</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="E45" s="11">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="F45" s="12">
         <v>40000000</v>
       </c>
       <c r="G45" s="13">
-        <v>0</v>
+        <v>863247.6666666666</v>
       </c>
       <c r="H45" s="14">
-        <v>0</v>
+        <v>2.158119166666666</v>
       </c>
       <c r="I45" s="13">
-        <v>2517650201.21875</v>
+        <v>3302970059.50923</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L45" s="16">
         <v>12.5</v>
@@ -3129,7 +3519,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="R45" s="9"/>
     </row>
@@ -3141,31 +3531,31 @@
         <v>64</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="E46" s="11">
-        <v>44257</v>
+        <v>44522</v>
       </c>
       <c r="F46" s="12">
         <v>40000000</v>
       </c>
       <c r="G46" s="13">
-        <v>0</v>
+        <v>14587803.6</v>
       </c>
       <c r="H46" s="14">
-        <v>0</v>
+        <v>36.469509</v>
       </c>
       <c r="I46" s="13">
-        <v>0</v>
+        <v>1279139034.421538</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L46" s="16">
         <v>12.5</v>
@@ -3175,7 +3565,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="R46" s="9"/>
     </row>
@@ -3187,31 +3577,31 @@
         <v>65</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="E47" s="11">
-        <v>44397</v>
+        <v>44445</v>
       </c>
       <c r="F47" s="12">
         <v>40000000</v>
       </c>
       <c r="G47" s="13">
-        <v>11166638.7</v>
+        <v>6533484.7</v>
       </c>
       <c r="H47" s="14">
-        <v>27.91659675</v>
+        <v>16.33371175</v>
       </c>
       <c r="I47" s="13">
-        <v>3278157577.066406</v>
+        <v>1246916450.038461</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L47" s="16">
         <v>12.5</v>
@@ -3221,7 +3611,7 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="R47" s="9"/>
     </row>
@@ -3233,31 +3623,31 @@
         <v>66</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="E48" s="11">
-        <v>44413</v>
+        <v>44524</v>
       </c>
       <c r="F48" s="12">
         <v>40000000</v>
       </c>
       <c r="G48" s="13">
-        <v>18159675.4</v>
+        <v>25258602.6</v>
       </c>
       <c r="H48" s="14">
-        <v>45.3991885</v>
+        <v>63.1465065</v>
       </c>
       <c r="I48" s="13">
-        <v>462067173.545312</v>
+        <v>578385974.812307</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="L48" s="16">
         <v>12.5</v>
@@ -3267,7 +3657,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="R48" s="9"/>
     </row>
@@ -3279,31 +3669,31 @@
         <v>67</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="E49" s="11">
-        <v>44362</v>
+        <v>44418</v>
       </c>
       <c r="F49" s="12">
         <v>40000000</v>
       </c>
       <c r="G49" s="13">
-        <v>13417658.23333333</v>
+        <v>25236668.46666667</v>
       </c>
       <c r="H49" s="14">
-        <v>33.54414558333333</v>
+        <v>63.09167116666667</v>
       </c>
       <c r="I49" s="13">
-        <v>1947827471.35625</v>
+        <v>3989981605.224307</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="L49" s="16">
         <v>12.5</v>
@@ -3313,7 +3703,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="R49" s="9"/>
     </row>
@@ -3325,31 +3715,31 @@
         <v>68</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="E50" s="11">
-        <v>44432</v>
+        <v>44448</v>
       </c>
       <c r="F50" s="12">
         <v>40000000</v>
       </c>
       <c r="G50" s="13">
-        <v>69664359.3</v>
+        <v>1644994</v>
       </c>
       <c r="H50" s="14">
-        <v>174.16089825</v>
+        <v>4.112485</v>
       </c>
       <c r="I50" s="13">
-        <v>1649805769.338906</v>
+        <v>3093051964.66723</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="L50" s="16">
         <v>12.5</v>
@@ -3359,7 +3749,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="R50" s="9"/>
     </row>
@@ -3371,31 +3761,31 @@
         <v>69</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="E51" s="11">
-        <v>44427</v>
+        <v>44434</v>
       </c>
       <c r="F51" s="12">
         <v>40000000</v>
       </c>
       <c r="G51" s="13">
-        <v>772894.3</v>
+        <v>4338946.2</v>
       </c>
       <c r="H51" s="14">
-        <v>1.93223575</v>
+        <v>10.8473655</v>
       </c>
       <c r="I51" s="13">
-        <v>47044018.90625</v>
+        <v>575268580.298461</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L51" s="16">
         <v>12.5</v>
@@ -3405,7 +3795,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="R51" s="9"/>
     </row>
@@ -3417,31 +3807,31 @@
         <v>70</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="E52" s="11">
-        <v>44425</v>
+        <v>44340</v>
       </c>
       <c r="F52" s="12">
         <v>40000000</v>
       </c>
       <c r="G52" s="13">
-        <v>2659702.7</v>
+        <v>9584636.366666667</v>
       </c>
       <c r="H52" s="14">
-        <v>6.649256749999999</v>
+        <v>23.96159091666667</v>
       </c>
       <c r="I52" s="13">
-        <v>332190712.46875</v>
+        <v>4068700829.633846</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L52" s="16">
         <v>12.5</v>
@@ -3451,7 +3841,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="R52" s="9"/>
     </row>
@@ -3463,31 +3853,31 @@
         <v>71</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="E53" s="11">
-        <v>44434</v>
+        <v>44466</v>
       </c>
       <c r="F53" s="12">
         <v>40000000</v>
       </c>
       <c r="G53" s="13">
-        <v>12594268.2</v>
+        <v>19564353</v>
       </c>
       <c r="H53" s="14">
-        <v>31.4856705</v>
+        <v>48.9108825</v>
       </c>
       <c r="I53" s="13">
-        <v>1304788326.128125</v>
+        <v>3538672728.963538</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L53" s="16">
         <v>12.5</v>
@@ -3497,7 +3887,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9" t="s">
-        <v>187</v>
+        <v>303</v>
       </c>
       <c r="R53" s="9"/>
     </row>
@@ -3509,31 +3899,31 @@
         <v>72</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="E54" s="11">
-        <v>44410</v>
+        <v>44288</v>
       </c>
       <c r="F54" s="12">
         <v>40000000</v>
       </c>
       <c r="G54" s="13">
-        <v>13661332.75</v>
+        <v>20155957.86666667</v>
       </c>
       <c r="H54" s="14">
-        <v>34.153331875</v>
+        <v>50.38989466666667</v>
       </c>
       <c r="I54" s="13">
-        <v>2631809807.772812</v>
+        <v>2771658039.334153</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="L54" s="16">
         <v>12.5</v>
@@ -3543,7 +3933,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="R54" s="9"/>
     </row>
@@ -3555,31 +3945,31 @@
         <v>73</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="E55" s="11">
-        <v>44438</v>
+        <v>44201</v>
       </c>
       <c r="F55" s="12">
         <v>40000000</v>
       </c>
       <c r="G55" s="13">
-        <v>710228.6</v>
+        <v>12333945.23333333</v>
       </c>
       <c r="H55" s="14">
-        <v>1.7755715</v>
+        <v>30.83486308333334</v>
       </c>
       <c r="I55" s="13">
-        <v>25310895.620312</v>
+        <v>4297197750.215384</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L55" s="16">
         <v>12.5</v>
@@ -3589,7 +3979,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="R55" s="9"/>
     </row>
@@ -3601,31 +3991,31 @@
         <v>74</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="E56" s="11">
-        <v>44336</v>
+        <v>44333</v>
       </c>
       <c r="F56" s="12">
         <v>40000000</v>
       </c>
       <c r="G56" s="13">
-        <v>16037336.63333333</v>
+        <v>3678669.9</v>
       </c>
       <c r="H56" s="14">
-        <v>40.09334158333333</v>
+        <v>9.19667475</v>
       </c>
       <c r="I56" s="13">
-        <v>1783250874.171875</v>
+        <v>6178519563.523076</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L56" s="16">
         <v>12.5</v>
@@ -3635,7 +4025,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9" t="s">
-        <v>136</v>
+        <v>290</v>
       </c>
       <c r="R56" s="9"/>
     </row>
@@ -3647,31 +4037,31 @@
         <v>75</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="E57" s="11">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="F57" s="12">
         <v>40000000</v>
       </c>
       <c r="G57" s="13">
-        <v>9435207.1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="14">
-        <v>23.58801775</v>
+        <v>0</v>
       </c>
       <c r="I57" s="13">
-        <v>441438897.380156</v>
+        <v>651028.876923</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L57" s="16">
         <v>12.5</v>
@@ -3681,7 +4071,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="R57" s="9"/>
     </row>
@@ -3693,31 +4083,31 @@
         <v>76</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="E58" s="11">
-        <v>44433</v>
+        <v>44372</v>
       </c>
       <c r="F58" s="12">
         <v>40000000</v>
       </c>
       <c r="G58" s="13">
-        <v>12275608.6</v>
+        <v>4318262.733333333</v>
       </c>
       <c r="H58" s="14">
-        <v>30.6890215</v>
+        <v>10.79565683333333</v>
       </c>
       <c r="I58" s="13">
-        <v>944323254.235294</v>
+        <v>2526562481.373076</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L58" s="16">
         <v>12.5</v>
@@ -3739,31 +4129,31 @@
         <v>77</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="E59" s="11">
-        <v>44354</v>
+        <v>44305</v>
       </c>
       <c r="F59" s="12">
         <v>40000000</v>
       </c>
       <c r="G59" s="13">
-        <v>10128291.3</v>
+        <v>8799861.966666667</v>
       </c>
       <c r="H59" s="14">
-        <v>25.32072824999999</v>
+        <v>21.99965491666667</v>
       </c>
       <c r="I59" s="13">
-        <v>8633827057.043905</v>
+        <v>2911779819.146307</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L59" s="16">
         <v>12.5</v>
@@ -3773,7 +4163,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9" t="s">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="R59" s="9"/>
     </row>
@@ -3785,31 +4175,31 @@
         <v>78</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="E60" s="11">
-        <v>44333</v>
+        <v>44466</v>
       </c>
       <c r="F60" s="12">
         <v>40000000</v>
       </c>
       <c r="G60" s="13">
-        <v>2185282.166666667</v>
+        <v>13236949.26666667</v>
       </c>
       <c r="H60" s="14">
-        <v>5.463205416666667</v>
+        <v>33.09237316666667</v>
       </c>
       <c r="I60" s="13">
-        <v>3005656238.973125</v>
+        <v>1113718911.400615</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L60" s="16">
         <v>12.5</v>
@@ -3819,7 +4209,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="R60" s="9"/>
     </row>
@@ -3831,31 +4221,31 @@
         <v>79</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="E61" s="11">
-        <v>44375</v>
+        <v>44337</v>
       </c>
       <c r="F61" s="12">
         <v>40000000</v>
       </c>
       <c r="G61" s="13">
-        <v>6729826.333333333</v>
+        <v>10301626.86666667</v>
       </c>
       <c r="H61" s="14">
-        <v>16.82456583333333</v>
+        <v>25.75406716666666</v>
       </c>
       <c r="I61" s="13">
-        <v>1782086270.501562</v>
+        <v>3040404022.605846</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L61" s="16">
         <v>12.5</v>
@@ -3865,7 +4255,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c r="R61" s="9"/>
     </row>
@@ -3877,31 +4267,31 @@
         <v>80</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="E62" s="11">
-        <v>44337</v>
+        <v>44518</v>
       </c>
       <c r="F62" s="12">
         <v>40000000</v>
       </c>
       <c r="G62" s="13">
-        <v>0</v>
+        <v>645196.8</v>
       </c>
       <c r="H62" s="14">
-        <v>0</v>
+        <v>1.612992</v>
       </c>
       <c r="I62" s="13">
-        <v>3260.671875</v>
+        <v>61064099.581818</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L62" s="16">
         <v>12.5</v>
@@ -3911,7 +4301,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="R62" s="9"/>
     </row>
@@ -3923,31 +4313,31 @@
         <v>81</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="E63" s="11">
-        <v>44410</v>
+        <v>44526</v>
       </c>
       <c r="F63" s="12">
         <v>40000000</v>
       </c>
       <c r="G63" s="13">
-        <v>9236854.35</v>
+        <v>867223.7</v>
       </c>
       <c r="H63" s="14">
-        <v>23.092135875</v>
+        <v>2.16805925</v>
       </c>
       <c r="I63" s="13">
-        <v>3733565751.94375</v>
+        <v>181151138.519444</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L63" s="16">
         <v>12.5</v>
@@ -3957,7 +4347,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="R63" s="9"/>
     </row>
@@ -3969,31 +4359,31 @@
         <v>82</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="E64" s="11">
-        <v>44333</v>
+        <v>44438</v>
       </c>
       <c r="F64" s="12">
         <v>40000000</v>
       </c>
       <c r="G64" s="13">
-        <v>3840650</v>
+        <v>11350315.2</v>
       </c>
       <c r="H64" s="14">
-        <v>9.601625</v>
+        <v>28.375788</v>
       </c>
       <c r="I64" s="13">
-        <v>2724133832.308125</v>
+        <v>1253422651.420769</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L64" s="16">
         <v>12.5</v>
@@ -4003,7 +4393,7 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9" t="s">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="R64" s="9"/>
     </row>
@@ -4015,31 +4405,31 @@
         <v>83</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="E65" s="11">
-        <v>44362</v>
+        <v>44526</v>
       </c>
       <c r="F65" s="12">
         <v>40000000</v>
       </c>
       <c r="G65" s="13">
-        <v>10153145.73333333</v>
+        <v>6111053.7</v>
       </c>
       <c r="H65" s="14">
-        <v>25.38286433333333</v>
+        <v>15.27763425</v>
       </c>
       <c r="I65" s="13">
-        <v>4694600697.023437</v>
+        <v>426072133.001538</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L65" s="16">
         <v>12.5</v>
@@ -4049,7 +4439,7 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="9" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="R65" s="9"/>
     </row>
@@ -4061,31 +4451,31 @@
         <v>84</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="E66" s="11">
-        <v>44333</v>
+        <v>44383</v>
       </c>
       <c r="F66" s="12">
         <v>40000000</v>
       </c>
       <c r="G66" s="13">
-        <v>0</v>
+        <v>4726758.5</v>
       </c>
       <c r="H66" s="14">
-        <v>0</v>
+        <v>11.81689625</v>
       </c>
       <c r="I66" s="13">
-        <v>2902629716.6875</v>
+        <v>1999154725.132</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L66" s="16">
         <v>12.5</v>
@@ -4095,7 +4485,7 @@
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="R66" s="9"/>
     </row>
@@ -4107,31 +4497,31 @@
         <v>85</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="E67" s="11">
-        <v>44333</v>
+        <v>44511</v>
       </c>
       <c r="F67" s="12">
         <v>40000000</v>
       </c>
       <c r="G67" s="13">
-        <v>0</v>
+        <v>28230049.35</v>
       </c>
       <c r="H67" s="14">
-        <v>0</v>
+        <v>70.575123375</v>
       </c>
       <c r="I67" s="13">
-        <v>3944129010.90625</v>
+        <v>4274211957.803692</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="L67" s="16">
         <v>12.5</v>
@@ -4141,7 +4531,7 @@
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="9" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="R67" s="9"/>
     </row>
@@ -4153,31 +4543,31 @@
         <v>86</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="E68" s="11">
-        <v>44410</v>
+        <v>44140</v>
       </c>
       <c r="F68" s="12">
         <v>40000000</v>
       </c>
       <c r="G68" s="13">
-        <v>8891534.799999999</v>
+        <v>12288655.2</v>
       </c>
       <c r="H68" s="14">
-        <v>22.228837</v>
+        <v>30.721638</v>
       </c>
       <c r="I68" s="13">
-        <v>2328341934.29625</v>
+        <v>2761234414.324923</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="L68" s="16">
         <v>12.5</v>
@@ -4187,245 +4577,2821 @@
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="R68" s="9"/>
     </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="8">
+        <v>63</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" s="11">
+        <v>44322</v>
+      </c>
+      <c r="F69" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G69" s="13">
+        <v>15895397.5</v>
+      </c>
+      <c r="H69" s="14">
+        <v>39.73849375</v>
+      </c>
+      <c r="I69" s="13">
+        <v>3110099334.424307</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L69" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="R69" s="9"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="8">
+        <v>64</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E70" s="11">
+        <v>44461</v>
+      </c>
+      <c r="F70" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G70" s="13">
+        <v>1485517.066666667</v>
+      </c>
+      <c r="H70" s="14">
+        <v>3.713792666666667</v>
+      </c>
+      <c r="I70" s="13">
+        <v>353775010.922769</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L70" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="R70" s="9"/>
+    </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
+      <c r="A71" s="8">
+        <v>65</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" s="11">
+        <v>44410</v>
+      </c>
+      <c r="F71" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G71" s="13">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14">
+        <v>0</v>
+      </c>
+      <c r="I71" s="13">
+        <v>5626065912.590461</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L71" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="R71" s="9"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="8">
+        <v>66</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" s="11">
+        <v>44510</v>
+      </c>
+      <c r="F72" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G72" s="13">
+        <v>17369341.2</v>
+      </c>
+      <c r="H72" s="14">
+        <v>43.423353</v>
+      </c>
+      <c r="I72" s="13">
+        <v>1180142159.587692</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L72" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="R72" s="9"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="B73" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
+      <c r="A73" s="8">
+        <v>67</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E73" s="11">
+        <v>44476</v>
+      </c>
+      <c r="F73" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G73" s="13">
+        <v>60828261.83333334</v>
+      </c>
+      <c r="H73" s="14">
+        <v>152.0706545833333</v>
+      </c>
+      <c r="I73" s="13">
+        <v>6060788541.495692</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L73" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="R73" s="9"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="B74" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
+      <c r="A74" s="8">
+        <v>68</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E74" s="11">
+        <v>44095</v>
+      </c>
+      <c r="F74" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G74" s="13">
+        <v>0</v>
+      </c>
+      <c r="H74" s="14">
+        <v>0</v>
+      </c>
+      <c r="I74" s="13">
+        <v>10843395272</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L74" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="R74" s="9"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
+      <c r="A75" s="8">
+        <v>69</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E75" s="11">
+        <v>44516</v>
+      </c>
+      <c r="F75" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G75" s="13">
+        <v>5388927.7</v>
+      </c>
+      <c r="H75" s="14">
+        <v>13.47231925</v>
+      </c>
+      <c r="I75" s="13">
+        <v>2547975338.951384</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L75" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="R75" s="9"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
+      <c r="A76" s="8">
+        <v>70</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E76" s="11">
+        <v>44525</v>
+      </c>
+      <c r="F76" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G76" s="13">
+        <v>0</v>
+      </c>
+      <c r="H76" s="14">
+        <v>0</v>
+      </c>
+      <c r="I76" s="13">
+        <v>41</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L76" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="R76" s="9"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
+      <c r="A77" s="8">
+        <v>71</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="11">
+        <v>44249</v>
+      </c>
+      <c r="F77" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G77" s="13">
+        <v>15903686.93333333</v>
+      </c>
+      <c r="H77" s="14">
+        <v>39.75921733333333</v>
+      </c>
+      <c r="I77" s="13">
+        <v>1702965484.446153</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L77" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="R77" s="9"/>
     </row>
     <row r="78" spans="1:18">
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
+      <c r="A78" s="8">
+        <v>72</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E78" s="11">
+        <v>44336</v>
+      </c>
+      <c r="F78" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G78" s="13">
+        <v>4123534.766666667</v>
+      </c>
+      <c r="H78" s="14">
+        <v>10.30883691666667</v>
+      </c>
+      <c r="I78" s="13">
+        <v>4396607088.821692</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L78" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="R78" s="9"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="8">
+        <v>73</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="11">
+        <v>44095</v>
+      </c>
+      <c r="F79" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G79" s="13">
+        <v>2360673</v>
+      </c>
+      <c r="H79" s="14">
+        <v>5.901682500000001</v>
+      </c>
+      <c r="I79" s="13">
+        <v>5198115623.384615</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L79" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="R79" s="9"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="B80" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-    </row>
-    <row r="81" spans="2:16">
-      <c r="B81" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-    </row>
-    <row r="82" spans="2:16">
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-    </row>
-    <row r="83" spans="2:16">
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-    </row>
-    <row r="84" spans="2:16">
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-    </row>
-    <row r="85" spans="2:16">
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
+      <c r="A80" s="8">
+        <v>74</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E80" s="11">
+        <v>44333</v>
+      </c>
+      <c r="F80" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G80" s="13">
+        <v>0</v>
+      </c>
+      <c r="H80" s="14">
+        <v>0</v>
+      </c>
+      <c r="I80" s="13">
+        <v>3668290228.507692</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L80" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="R80" s="9"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="8">
+        <v>75</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" s="11">
+        <v>44257</v>
+      </c>
+      <c r="F81" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G81" s="13">
+        <v>0</v>
+      </c>
+      <c r="H81" s="14">
+        <v>0</v>
+      </c>
+      <c r="I81" s="13">
+        <v>0</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L81" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="R81" s="9"/>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="8">
+        <v>76</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E82" s="11">
+        <v>44397</v>
+      </c>
+      <c r="F82" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G82" s="13">
+        <v>3948113.566666666</v>
+      </c>
+      <c r="H82" s="14">
+        <v>9.870283916666667</v>
+      </c>
+      <c r="I82" s="13">
+        <v>3630051352.894307</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L82" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="R82" s="9"/>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="8">
+        <v>77</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E83" s="11">
+        <v>44525</v>
+      </c>
+      <c r="F83" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G83" s="13">
+        <v>31205385.9</v>
+      </c>
+      <c r="H83" s="14">
+        <v>78.01346475</v>
+      </c>
+      <c r="I83" s="13">
+        <v>1849912157.640769</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L83" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R83" s="9"/>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="8">
+        <v>78</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" s="11">
+        <v>44525</v>
+      </c>
+      <c r="F84" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G84" s="13">
+        <v>17231577.8</v>
+      </c>
+      <c r="H84" s="14">
+        <v>43.0789445</v>
+      </c>
+      <c r="I84" s="13">
+        <v>737521048.3672301</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L84" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="R84" s="9"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="8">
+        <v>79</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" s="11">
+        <v>44413</v>
+      </c>
+      <c r="F85" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G85" s="13">
+        <v>6901676</v>
+      </c>
+      <c r="H85" s="14">
+        <v>17.25419</v>
+      </c>
+      <c r="I85" s="13">
+        <v>439986415.136923</v>
+      </c>
+      <c r="J85" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L85" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="R85" s="9"/>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="8">
+        <v>80</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E86" s="11">
+        <v>44452</v>
+      </c>
+      <c r="F86" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G86" s="13">
+        <v>80707916.5</v>
+      </c>
+      <c r="H86" s="14">
+        <v>201.76979125</v>
+      </c>
+      <c r="I86" s="13">
+        <v>7260511210.467692</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L86" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="R86" s="9"/>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="8">
+        <v>81</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" s="11">
+        <v>44508</v>
+      </c>
+      <c r="F87" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G87" s="13">
+        <v>14540538.4</v>
+      </c>
+      <c r="H87" s="14">
+        <v>36.351346</v>
+      </c>
+      <c r="I87" s="13">
+        <v>1044678099.039076</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L87" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="R87" s="9"/>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="8">
+        <v>82</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" s="11">
+        <v>44362</v>
+      </c>
+      <c r="F88" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G88" s="13">
+        <v>17691008.16666667</v>
+      </c>
+      <c r="H88" s="14">
+        <v>44.22752041666667</v>
+      </c>
+      <c r="I88" s="13">
+        <v>2322594788.338461</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L88" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="R88" s="9"/>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="8">
+        <v>83</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" s="11">
+        <v>44522</v>
+      </c>
+      <c r="F89" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G89" s="13">
+        <v>7786830.8</v>
+      </c>
+      <c r="H89" s="14">
+        <v>19.467077</v>
+      </c>
+      <c r="I89" s="13">
+        <v>119226686.956923</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L89" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="R89" s="9"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="8">
+        <v>84</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E90" s="11">
+        <v>44525</v>
+      </c>
+      <c r="F90" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G90" s="13">
+        <v>0</v>
+      </c>
+      <c r="H90" s="14">
+        <v>0</v>
+      </c>
+      <c r="I90" s="13">
+        <v>0</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L90" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="R90" s="9"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="8">
+        <v>85</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E91" s="11">
+        <v>44432</v>
+      </c>
+      <c r="F91" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G91" s="13">
+        <v>13923549.53333333</v>
+      </c>
+      <c r="H91" s="14">
+        <v>34.80887383333333</v>
+      </c>
+      <c r="I91" s="13">
+        <v>1634144654.604153</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L91" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="R91" s="9"/>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="8">
+        <v>86</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92" s="11">
+        <v>44427</v>
+      </c>
+      <c r="F92" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G92" s="13">
+        <v>208216.5</v>
+      </c>
+      <c r="H92" s="14">
+        <v>0.5205412500000001</v>
+      </c>
+      <c r="I92" s="13">
+        <v>45324420.466153</v>
+      </c>
+      <c r="J92" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L92" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="R92" s="9"/>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="8">
+        <v>87</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" s="11">
+        <v>44503</v>
+      </c>
+      <c r="F93" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G93" s="13">
+        <v>20228683.65</v>
+      </c>
+      <c r="H93" s="14">
+        <v>50.571709125</v>
+      </c>
+      <c r="I93" s="13">
+        <v>2335809881.162</v>
+      </c>
+      <c r="J93" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L93" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="R93" s="9"/>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="8">
+        <v>88</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E94" s="11">
+        <v>44425</v>
+      </c>
+      <c r="F94" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G94" s="13">
+        <v>2285126.133333333</v>
+      </c>
+      <c r="H94" s="14">
+        <v>5.712815333333333</v>
+      </c>
+      <c r="I94" s="13">
+        <v>665159578.984615</v>
+      </c>
+      <c r="J94" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L94" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="R94" s="9"/>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="8">
+        <v>89</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E95" s="11">
+        <v>44434</v>
+      </c>
+      <c r="F95" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G95" s="13">
+        <v>1509535.9</v>
+      </c>
+      <c r="H95" s="14">
+        <v>3.77383975</v>
+      </c>
+      <c r="I95" s="13">
+        <v>447359797.212307</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L95" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="R95" s="9"/>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="8">
+        <v>90</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E96" s="11">
+        <v>44410</v>
+      </c>
+      <c r="F96" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G96" s="13">
+        <v>17065549.7</v>
+      </c>
+      <c r="H96" s="14">
+        <v>42.66387425</v>
+      </c>
+      <c r="I96" s="13">
+        <v>3620146809.671846</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L96" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="R96" s="9"/>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="8">
+        <v>91</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E97" s="11">
+        <v>44438</v>
+      </c>
+      <c r="F97" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G97" s="13">
+        <v>1290223.866666667</v>
+      </c>
+      <c r="H97" s="14">
+        <v>3.225559666666667</v>
+      </c>
+      <c r="I97" s="13">
+        <v>125733523.704615</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L97" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="R97" s="9"/>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="8">
+        <v>92</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" s="11">
+        <v>44336</v>
+      </c>
+      <c r="F98" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G98" s="13">
+        <v>44458870.8</v>
+      </c>
+      <c r="H98" s="14">
+        <v>111.147177</v>
+      </c>
+      <c r="I98" s="13">
+        <v>2799414468.097692</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L98" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="R98" s="9"/>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="8">
+        <v>93</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E99" s="11">
+        <v>44482</v>
+      </c>
+      <c r="F99" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G99" s="13">
+        <v>14439981.7</v>
+      </c>
+      <c r="H99" s="14">
+        <v>36.09995425</v>
+      </c>
+      <c r="I99" s="13">
+        <v>1260652621.512307</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L99" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="R99" s="9"/>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="8">
+        <v>94</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E100" s="11">
+        <v>44431</v>
+      </c>
+      <c r="F100" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G100" s="13">
+        <v>5224510.033333333</v>
+      </c>
+      <c r="H100" s="14">
+        <v>13.06127508333333</v>
+      </c>
+      <c r="I100" s="13">
+        <v>1147646161.044769</v>
+      </c>
+      <c r="J100" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L100" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="R100" s="9"/>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="8">
+        <v>95</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E101" s="11">
+        <v>44433</v>
+      </c>
+      <c r="F101" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G101" s="13">
+        <v>24443015.83333333</v>
+      </c>
+      <c r="H101" s="14">
+        <v>61.10753958333333</v>
+      </c>
+      <c r="I101" s="13">
+        <v>1969067090.906153</v>
+      </c>
+      <c r="J101" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L101" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="R101" s="9"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="8">
+        <v>96</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E102" s="11">
+        <v>44526</v>
+      </c>
+      <c r="F102" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G102" s="13">
+        <v>16066190.6</v>
+      </c>
+      <c r="H102" s="14">
+        <v>40.1654765</v>
+      </c>
+      <c r="I102" s="13">
+        <v>1027549578.433076</v>
+      </c>
+      <c r="J102" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L102" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="R102" s="9"/>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="8">
+        <v>97</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E103" s="11">
+        <v>44524</v>
+      </c>
+      <c r="F103" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G103" s="13">
+        <v>7061858.8</v>
+      </c>
+      <c r="H103" s="14">
+        <v>17.654647</v>
+      </c>
+      <c r="I103" s="13">
+        <v>937662426.066666</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L103" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="R103" s="9"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="8">
+        <v>98</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E104" s="11">
+        <v>44354</v>
+      </c>
+      <c r="F104" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G104" s="13">
+        <v>6194252.733333333</v>
+      </c>
+      <c r="H104" s="14">
+        <v>15.48563183333333</v>
+      </c>
+      <c r="I104" s="13">
+        <v>14699456457.486</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L104" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="R104" s="9"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="8">
+        <v>99</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E105" s="11">
+        <v>44333</v>
+      </c>
+      <c r="F105" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G105" s="13">
+        <v>3506079.533333333</v>
+      </c>
+      <c r="H105" s="14">
+        <v>8.765198833333333</v>
+      </c>
+      <c r="I105" s="13">
+        <v>3025006917.437846</v>
+      </c>
+      <c r="J105" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L105" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="R105" s="9"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="8">
+        <v>100</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E106" s="11">
+        <v>44524</v>
+      </c>
+      <c r="F106" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G106" s="13">
+        <v>40442151.6</v>
+      </c>
+      <c r="H106" s="14">
+        <v>101.105379</v>
+      </c>
+      <c r="I106" s="13">
+        <v>9816456707.202461</v>
+      </c>
+      <c r="J106" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L106" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="R106" s="9"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="8">
+        <v>101</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E107" s="11">
+        <v>44498</v>
+      </c>
+      <c r="F107" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G107" s="13">
+        <v>4062614.65</v>
+      </c>
+      <c r="H107" s="14">
+        <v>10.156536625</v>
+      </c>
+      <c r="I107" s="13">
+        <v>1055613812.024615</v>
+      </c>
+      <c r="J107" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L107" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="R107" s="9"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="8">
+        <v>102</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E108" s="11">
+        <v>44502</v>
+      </c>
+      <c r="F108" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G108" s="13">
+        <v>15468986.7</v>
+      </c>
+      <c r="H108" s="14">
+        <v>38.67246675</v>
+      </c>
+      <c r="I108" s="13">
+        <v>1892446625.249384</v>
+      </c>
+      <c r="J108" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L108" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R108" s="9"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="8">
+        <v>103</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" s="11">
+        <v>44375</v>
+      </c>
+      <c r="F109" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G109" s="13">
+        <v>14157662.83333333</v>
+      </c>
+      <c r="H109" s="14">
+        <v>35.39415708333333</v>
+      </c>
+      <c r="I109" s="13">
+        <v>3994784850.845384</v>
+      </c>
+      <c r="J109" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L109" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="R109" s="9"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="8">
+        <v>104</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E110" s="11">
+        <v>44515</v>
+      </c>
+      <c r="F110" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G110" s="13">
+        <v>6388338.399999999</v>
+      </c>
+      <c r="H110" s="14">
+        <v>15.970846</v>
+      </c>
+      <c r="I110" s="13">
+        <v>416359120.231076</v>
+      </c>
+      <c r="J110" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L110" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="R110" s="9"/>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="8">
+        <v>105</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E111" s="11">
+        <v>44337</v>
+      </c>
+      <c r="F111" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G111" s="13">
+        <v>0</v>
+      </c>
+      <c r="H111" s="14">
+        <v>0</v>
+      </c>
+      <c r="I111" s="13">
+        <v>3261.353846</v>
+      </c>
+      <c r="J111" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L111" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R111" s="9"/>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="8">
+        <v>106</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E112" s="11">
+        <v>44448</v>
+      </c>
+      <c r="F112" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G112" s="13">
+        <v>998781.1666666666</v>
+      </c>
+      <c r="H112" s="14">
+        <v>2.496952916666667</v>
+      </c>
+      <c r="I112" s="13">
+        <v>164140583.196923</v>
+      </c>
+      <c r="J112" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L112" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="R112" s="9"/>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="8">
+        <v>107</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E113" s="11">
+        <v>44519</v>
+      </c>
+      <c r="F113" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G113" s="13">
+        <v>51014907</v>
+      </c>
+      <c r="H113" s="14">
+        <v>127.5372675</v>
+      </c>
+      <c r="I113" s="13">
+        <v>1099131846.675692</v>
+      </c>
+      <c r="J113" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L113" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="R113" s="9"/>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="8">
+        <v>108</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E114" s="11">
+        <v>44410</v>
+      </c>
+      <c r="F114" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G114" s="13">
+        <v>4548555.7</v>
+      </c>
+      <c r="H114" s="14">
+        <v>11.37138925</v>
+      </c>
+      <c r="I114" s="13">
+        <v>1188702287.476923</v>
+      </c>
+      <c r="J114" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L114" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="R114" s="9"/>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" s="8">
+        <v>109</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E115" s="11">
+        <v>44523</v>
+      </c>
+      <c r="F115" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G115" s="13">
+        <v>56987866.7</v>
+      </c>
+      <c r="H115" s="14">
+        <v>142.46966675</v>
+      </c>
+      <c r="I115" s="13">
+        <v>1954620409.593846</v>
+      </c>
+      <c r="J115" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L115" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="R115" s="9"/>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" s="8">
+        <v>110</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E116" s="11">
+        <v>44333</v>
+      </c>
+      <c r="F116" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G116" s="13">
+        <v>7328335.033333332</v>
+      </c>
+      <c r="H116" s="14">
+        <v>18.32083758333333</v>
+      </c>
+      <c r="I116" s="13">
+        <v>2960243997.258307</v>
+      </c>
+      <c r="J116" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L116" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="R116" s="9"/>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" s="8">
+        <v>111</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E117" s="11">
+        <v>44362</v>
+      </c>
+      <c r="F117" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G117" s="13">
+        <v>32132649.86666666</v>
+      </c>
+      <c r="H117" s="14">
+        <v>80.33162466666666</v>
+      </c>
+      <c r="I117" s="13">
+        <v>11405583836.66769</v>
+      </c>
+      <c r="J117" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L117" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="R117" s="9"/>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" s="8">
+        <v>112</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" s="11">
+        <v>44333</v>
+      </c>
+      <c r="F118" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G118" s="13">
+        <v>0</v>
+      </c>
+      <c r="H118" s="14">
+        <v>0</v>
+      </c>
+      <c r="I118" s="13">
+        <v>2866450703.430769</v>
+      </c>
+      <c r="J118" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L118" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="R118" s="9"/>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119" s="8">
+        <v>113</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E119" s="11">
+        <v>44453</v>
+      </c>
+      <c r="F119" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G119" s="13">
+        <v>1502236.633333334</v>
+      </c>
+      <c r="H119" s="14">
+        <v>3.755591583333334</v>
+      </c>
+      <c r="I119" s="13">
+        <v>335119407.852461</v>
+      </c>
+      <c r="J119" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L119" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="R119" s="9"/>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" s="8">
+        <v>114</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E120" s="11">
+        <v>44523</v>
+      </c>
+      <c r="F120" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G120" s="13">
+        <v>23254395.3</v>
+      </c>
+      <c r="H120" s="14">
+        <v>58.13598825</v>
+      </c>
+      <c r="I120" s="13">
+        <v>1351417944.016615</v>
+      </c>
+      <c r="J120" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L120" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="R120" s="9"/>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" s="8">
+        <v>115</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E121" s="11">
+        <v>44333</v>
+      </c>
+      <c r="F121" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G121" s="13">
+        <v>3144251.333333333</v>
+      </c>
+      <c r="H121" s="14">
+        <v>7.860628333333334</v>
+      </c>
+      <c r="I121" s="13">
+        <v>4550704899.482769</v>
+      </c>
+      <c r="J121" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L121" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="R121" s="9"/>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" s="8">
+        <v>116</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E122" s="11">
+        <v>44526</v>
+      </c>
+      <c r="F122" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G122" s="13">
+        <v>20599520.7</v>
+      </c>
+      <c r="H122" s="14">
+        <v>51.49880175</v>
+      </c>
+      <c r="I122" s="13">
+        <v>553540799.97323</v>
+      </c>
+      <c r="J122" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L122" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="R122" s="9"/>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" s="8">
+        <v>117</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E123" s="11">
+        <v>44502</v>
+      </c>
+      <c r="F123" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G123" s="13">
+        <v>44173033.95</v>
+      </c>
+      <c r="H123" s="14">
+        <v>110.432584875</v>
+      </c>
+      <c r="I123" s="13">
+        <v>6695591384.343692</v>
+      </c>
+      <c r="J123" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L123" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="R123" s="9"/>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" s="8">
+        <v>118</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E124" s="11">
+        <v>44410</v>
+      </c>
+      <c r="F124" s="12">
+        <v>40000000</v>
+      </c>
+      <c r="G124" s="13">
+        <v>11563615.8</v>
+      </c>
+      <c r="H124" s="14">
+        <v>28.9090395</v>
+      </c>
+      <c r="I124" s="13">
+        <v>3230095552.26523</v>
+      </c>
+      <c r="J124" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L124" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="R124" s="9"/>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+    </row>
+    <row r="129" spans="2:16">
+      <c r="B129" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="18"/>
+      <c r="N129" s="18"/>
+      <c r="O129" s="18"/>
+      <c r="P129" s="18"/>
+    </row>
+    <row r="130" spans="2:16">
+      <c r="B130" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+    </row>
+    <row r="131" spans="2:16">
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
+      <c r="O131" s="20"/>
+      <c r="P131" s="20"/>
+    </row>
+    <row r="132" spans="2:16">
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="20"/>
+      <c r="O132" s="20"/>
+      <c r="P132" s="20"/>
+    </row>
+    <row r="133" spans="2:16">
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="20"/>
+      <c r="O133" s="20"/>
+      <c r="P133" s="20"/>
+    </row>
+    <row r="134" spans="2:16">
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="20"/>
+      <c r="O134" s="20"/>
+      <c r="P134" s="20"/>
+    </row>
+    <row r="136" spans="2:16">
+      <c r="B136" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+    </row>
+    <row r="137" spans="2:16">
+      <c r="B137" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
+      <c r="K137" s="20"/>
+      <c r="L137" s="20"/>
+      <c r="M137" s="20"/>
+      <c r="N137" s="20"/>
+      <c r="O137" s="20"/>
+      <c r="P137" s="20"/>
+    </row>
+    <row r="138" spans="2:16">
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="20"/>
+      <c r="L138" s="20"/>
+      <c r="M138" s="20"/>
+      <c r="N138" s="20"/>
+      <c r="O138" s="20"/>
+      <c r="P138" s="20"/>
+    </row>
+    <row r="139" spans="2:16">
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="20"/>
+      <c r="L139" s="20"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="20"/>
+      <c r="O139" s="20"/>
+      <c r="P139" s="20"/>
+    </row>
+    <row r="140" spans="2:16">
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="20"/>
+      <c r="L140" s="20"/>
+      <c r="M140" s="20"/>
+      <c r="N140" s="20"/>
+      <c r="O140" s="20"/>
+      <c r="P140" s="20"/>
+    </row>
+    <row r="141" spans="2:16">
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="20"/>
+      <c r="O141" s="20"/>
+      <c r="P141" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4435,16 +7401,16 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="B73:P73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="I74:P74"/>
-    <mergeCell ref="B75:H78"/>
-    <mergeCell ref="I75:P78"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="I80:P80"/>
-    <mergeCell ref="B81:H85"/>
-    <mergeCell ref="I81:P85"/>
+    <mergeCell ref="A127:P127"/>
+    <mergeCell ref="B129:P129"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="I130:P130"/>
+    <mergeCell ref="B131:H134"/>
+    <mergeCell ref="I131:P134"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="I136:P136"/>
+    <mergeCell ref="B137:H141"/>
+    <mergeCell ref="I137:P141"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
